--- a/data/daftar paket.xlsx
+++ b/data/daftar paket.xlsx
@@ -4,23 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PAKET" sheetId="4" r:id="rId1"/>
     <sheet name="MATPEL" sheetId="2" r:id="rId2"/>
     <sheet name="PAKETKITAB" sheetId="3" r:id="rId3"/>
+    <sheet name="materi ganjil" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="PAKET">PAKET!$A:$C</definedName>
-    <definedName name="PELAJARAN">MATPEL!$A:$F</definedName>
+    <definedName name="PELAJARAN">MATPEL!$A:$D</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="197">
   <si>
     <t>BALAGHOH (JAWAHIRUL MAKNUN)</t>
   </si>
@@ -371,13 +373,256 @@
   </si>
   <si>
     <t>1-006</t>
+  </si>
+  <si>
+    <t>Margin</t>
+  </si>
+  <si>
+    <t>MARGIN</t>
+  </si>
+  <si>
+    <t>DISC.</t>
+  </si>
+  <si>
+    <t>Pembulatan</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Kelas</t>
+  </si>
+  <si>
+    <t>Materi&amp;Kitab</t>
+  </si>
+  <si>
+    <t>Harga</t>
+  </si>
+  <si>
+    <t>Disc</t>
+  </si>
+  <si>
+    <t>W. III</t>
+  </si>
+  <si>
+    <t>Putra</t>
+  </si>
+  <si>
+    <t>Balaghoh</t>
+  </si>
+  <si>
+    <t>Jawahirul Maknun</t>
+  </si>
+  <si>
+    <t>Ilmu Hadits</t>
+  </si>
+  <si>
+    <t>Manhalul Latif</t>
+  </si>
+  <si>
+    <t>Ilmu Falaq</t>
+  </si>
+  <si>
+    <t>Fathul Rouf</t>
+  </si>
+  <si>
+    <t>Jumlah</t>
+  </si>
+  <si>
+    <t>W. II</t>
+  </si>
+  <si>
+    <t>Nahwu</t>
+  </si>
+  <si>
+    <t>Alfiyah Ibnu Malik II</t>
+  </si>
+  <si>
+    <t>Qoidah Fiqhiyah</t>
+  </si>
+  <si>
+    <t>As-Sulam</t>
+  </si>
+  <si>
+    <t>Tauhid</t>
+  </si>
+  <si>
+    <t>Fathul Majid</t>
+  </si>
+  <si>
+    <t>W. I</t>
+  </si>
+  <si>
+    <t>Alfiyah Ibnu Malik I</t>
+  </si>
+  <si>
+    <t>Qowaidul I'rob</t>
+  </si>
+  <si>
+    <t>Nadmul Bauquni</t>
+  </si>
+  <si>
+    <t>Ushul Fiqih</t>
+  </si>
+  <si>
+    <t>Mabadiul Awaliyah</t>
+  </si>
+  <si>
+    <t>Imrithi Ngalah</t>
+  </si>
+  <si>
+    <t>Hadits</t>
+  </si>
+  <si>
+    <t>Bulughul Marom</t>
+  </si>
+  <si>
+    <t>Shorof</t>
+  </si>
+  <si>
+    <t>Maqsud Ngalah</t>
+  </si>
+  <si>
+    <t>Tijanud Darori</t>
+  </si>
+  <si>
+    <t>Matan Durotul Yatimah</t>
+  </si>
+  <si>
+    <t>Akhlaq</t>
+  </si>
+  <si>
+    <t>Akhlaqul Banin III</t>
+  </si>
+  <si>
+    <t>Khulasoh</t>
+  </si>
+  <si>
+    <t>Khulasoh Nurul Yaqin III</t>
+  </si>
+  <si>
+    <t>Tajwid</t>
+  </si>
+  <si>
+    <t>Hidayatul Mustafid</t>
+  </si>
+  <si>
+    <t>Tafsir</t>
+  </si>
+  <si>
+    <t>Ibriz III</t>
+  </si>
+  <si>
+    <t>Putri</t>
+  </si>
+  <si>
+    <t>Akhlaqul Banat III</t>
+  </si>
+  <si>
+    <t>Awamilul Jurjani</t>
+  </si>
+  <si>
+    <t>Akhlaqul Banin II</t>
+  </si>
+  <si>
+    <t>Khulasoh Nurul Yaqin II</t>
+  </si>
+  <si>
+    <t>Matan Jazariyah</t>
+  </si>
+  <si>
+    <t>Ibriz II</t>
+  </si>
+  <si>
+    <t>B. Arab</t>
+  </si>
+  <si>
+    <t>Madarij Durusul Arobiyah III</t>
+  </si>
+  <si>
+    <t>Akhlaqul Banat II</t>
+  </si>
+  <si>
+    <t>Matan Jurumiyah &amp; Nadhom Dur.</t>
+  </si>
+  <si>
+    <t>Akhlaqul Banin I</t>
+  </si>
+  <si>
+    <t>Fiqih</t>
+  </si>
+  <si>
+    <t>Mabadi' Fiqih III</t>
+  </si>
+  <si>
+    <t>Tuhfatul Athfal</t>
+  </si>
+  <si>
+    <t>Ibriz I</t>
+  </si>
+  <si>
+    <t>Madarij Durusul Arobiyah I</t>
+  </si>
+  <si>
+    <t>Imla'</t>
+  </si>
+  <si>
+    <t>Akhlaqul Banat I</t>
+  </si>
+  <si>
+    <t>Putra/Putri</t>
+  </si>
+  <si>
+    <t>Nahwu Jawan</t>
+  </si>
+  <si>
+    <t>Mathlab</t>
+  </si>
+  <si>
+    <t>Mabadi' Fiqih I</t>
+  </si>
+  <si>
+    <t>Sulamudiyanah</t>
+  </si>
+  <si>
+    <t>Qiro'atul Kutub</t>
+  </si>
+  <si>
+    <t>Pego</t>
+  </si>
+  <si>
+    <t>Pego Ala Ngalah</t>
+  </si>
+  <si>
+    <t>Birrul Walidaikum</t>
+  </si>
+  <si>
+    <t>Fasholatan</t>
+  </si>
+  <si>
+    <t>101 Hadits Budi Luhur</t>
+  </si>
+  <si>
+    <t>Tahsinul Khot</t>
+  </si>
+  <si>
+    <t>sulamut taufiq</t>
+  </si>
+  <si>
+    <t>matpel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,6 +653,23 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -449,17 +711,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -925,614 +1226,719 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="54.85546875" style="6" customWidth="1"/>
-    <col min="3" max="5" width="9.140625" style="5"/>
-    <col min="6" max="6" width="12.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="24"/>
+    <col min="2" max="2" width="54.85546875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="23"/>
+    <col min="4" max="4" width="13.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="22">
+        <v>14850</v>
+      </c>
+      <c r="D2" s="22">
+        <v>22100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="22">
+        <v>28600</v>
+      </c>
+      <c r="D3" s="22">
+        <v>37700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="C4" s="22">
+        <v>2240</v>
+      </c>
+      <c r="D4" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="C5" s="22">
+        <v>16000</v>
+      </c>
+      <c r="D5" s="22">
+        <v>20800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="C6" s="22">
+        <v>7150</v>
+      </c>
+      <c r="D6" s="22">
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="C7" s="22">
+        <v>0</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="C8" s="22">
+        <v>16000</v>
+      </c>
+      <c r="D8" s="22">
+        <v>20800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="C9" s="22">
+        <v>2400</v>
+      </c>
+      <c r="D9" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="C10" s="22">
+        <v>4290</v>
+      </c>
+      <c r="D10" s="22">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="C11" s="22">
+        <v>3600</v>
+      </c>
+      <c r="D11" s="22">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="C12" s="22">
+        <v>3575</v>
+      </c>
+      <c r="D12" s="22">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="C13" s="22">
+        <v>21600</v>
+      </c>
+      <c r="D13" s="22">
+        <v>25900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="C14" s="22">
+        <v>0</v>
+      </c>
+      <c r="D14" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="C15" s="22">
+        <v>9000</v>
+      </c>
+      <c r="D15" s="22">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="C16" s="22">
+        <v>1375</v>
+      </c>
+      <c r="D16" s="22">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="C17" s="22">
+        <v>3500</v>
+      </c>
+      <c r="D17" s="22">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="C18" s="22">
+        <v>3500</v>
+      </c>
+      <c r="D18" s="22">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="C19" s="22">
+        <v>4100</v>
+      </c>
+      <c r="D19" s="22">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="C20" s="22">
+        <v>3750</v>
+      </c>
+      <c r="D20" s="22">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="C21" s="22">
+        <v>2750</v>
+      </c>
+      <c r="D21" s="22">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+      <c r="C22" s="22">
+        <v>4760</v>
+      </c>
+      <c r="D22" s="22">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="C23" s="22">
+        <v>13475</v>
+      </c>
+      <c r="D23" s="22">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="C24" s="22">
+        <v>2400</v>
+      </c>
+      <c r="D24" s="22">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="C25" s="22">
+        <v>5000</v>
+      </c>
+      <c r="D25" s="22">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="C26" s="22">
+        <v>2500</v>
+      </c>
+      <c r="D26" s="22">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="C27" s="22">
+        <v>3675</v>
+      </c>
+      <c r="D27" s="22">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="C28" s="22">
+        <v>6425</v>
+      </c>
+      <c r="D28" s="22">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="C29" s="22">
+        <v>3025</v>
+      </c>
+      <c r="D29" s="22">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="C30" s="22">
+        <v>4550</v>
+      </c>
+      <c r="D30" s="22">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="C31" s="22">
+        <v>2250</v>
+      </c>
+      <c r="D31" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="C32" s="22">
+        <v>0</v>
+      </c>
+      <c r="D32" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="C33" s="22">
+        <v>4500</v>
+      </c>
+      <c r="D33" s="22">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="C34" s="22">
+        <v>1375</v>
+      </c>
+      <c r="D34" s="22">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="C35" s="22">
+        <v>4760</v>
+      </c>
+      <c r="D35" s="22">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="C36" s="22">
+        <v>1875</v>
+      </c>
+      <c r="D36" s="22">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="C37" s="22">
+        <v>2700</v>
+      </c>
+      <c r="D37" s="22">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="C38" s="22">
+        <v>4500</v>
+      </c>
+      <c r="D38" s="22">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="C39" s="22">
+        <v>2500</v>
+      </c>
+      <c r="D39" s="22">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="C40" s="22">
+        <v>0</v>
+      </c>
+      <c r="D40" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="C41" s="22">
+        <v>1500</v>
+      </c>
+      <c r="D41" s="22">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="C42" s="22">
+        <v>2025</v>
+      </c>
+      <c r="D42" s="22">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="C43" s="22">
+        <v>1500</v>
+      </c>
+      <c r="D43" s="22">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="C44" s="22">
+        <v>1760</v>
+      </c>
+      <c r="D44" s="22">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+      <c r="C45" s="22">
+        <v>3700</v>
+      </c>
+      <c r="D45" s="22">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="C46" s="22">
+        <v>0</v>
+      </c>
+      <c r="D46" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="C47" s="22">
+        <v>1500</v>
+      </c>
+      <c r="D47" s="22">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="16" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="C48" s="23">
+        <v>1500</v>
+      </c>
+      <c r="D48" s="22">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="16" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="C49" s="23">
+        <v>0</v>
+      </c>
+      <c r="D49" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="16" t="s">
         <v>41</v>
+      </c>
+      <c r="C50" s="23">
+        <v>0</v>
+      </c>
+      <c r="D50" s="22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1546,12 +1952,12 @@
   <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="2" max="2" width="9.140625" style="4"/>
     <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
   </cols>
@@ -1560,7 +1966,7 @@
       <c r="A1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C1" t="s">
@@ -1574,15 +1980,15 @@
       <c r="A2">
         <v>91</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="16" t="s">
         <v>85</v>
       </c>
       <c r="C2" t="str">
-        <f>VLOOKUP(B2,PELAJARAN,2,FALSE)</f>
+        <f t="shared" ref="C2:C33" si="0">VLOOKUP(B2,PELAJARAN,2,FALSE)</f>
         <v>BALAGHOH (JAWAHIRUL MAKNUN)</v>
       </c>
       <c r="D2" t="str">
-        <f>VLOOKUP(A2,PAKET,2,FALSE)</f>
+        <f t="shared" ref="D2:D33" si="1">VLOOKUP(A2,PAKET,2,FALSE)</f>
         <v>W III Putra/Putri</v>
       </c>
     </row>
@@ -1590,15 +1996,15 @@
       <c r="A3">
         <v>91</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="16" t="s">
         <v>99</v>
       </c>
       <c r="C3" t="str">
-        <f>VLOOKUP(B3,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>ILMU HADITS (MANHALUL LATIF)</v>
       </c>
       <c r="D3" t="str">
-        <f>VLOOKUP(A3,PAKET,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>W III Putra/Putri</v>
       </c>
     </row>
@@ -1606,15 +2012,15 @@
       <c r="A4">
         <v>91</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="16" t="s">
         <v>100</v>
       </c>
       <c r="C4" t="str">
-        <f>VLOOKUP(B4,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>ILMU FALAK (FATHUL ROUF)</v>
       </c>
       <c r="D4" t="str">
-        <f>VLOOKUP(A4,PAKET,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>W III Putra/Putri</v>
       </c>
     </row>
@@ -1622,15 +2028,15 @@
       <c r="A5">
         <v>81</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="16" t="s">
         <v>84</v>
       </c>
       <c r="C5" t="str">
-        <f>VLOOKUP(B5,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>NAHWU (ALFIYAH IBNU MALIK II)</v>
       </c>
       <c r="D5" t="str">
-        <f>VLOOKUP(A5,PAKET,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>W II Putra/Putri</v>
       </c>
     </row>
@@ -1638,15 +2044,15 @@
       <c r="A6">
         <v>81</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="16" t="s">
         <v>101</v>
       </c>
       <c r="C6" t="str">
-        <f>VLOOKUP(B6,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>QOIDAH FIQHIYAH (AS-SULAM)</v>
       </c>
       <c r="D6" t="str">
-        <f>VLOOKUP(A6,PAKET,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>W II Putra/Putri</v>
       </c>
     </row>
@@ -1654,15 +2060,15 @@
       <c r="A7">
         <v>81</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="16" t="s">
         <v>102</v>
       </c>
       <c r="C7" t="str">
-        <f>VLOOKUP(B7,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>TAUHID (FATHUL MAJID II)</v>
       </c>
       <c r="D7" t="str">
-        <f>VLOOKUP(A7,PAKET,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>W II Putra/Putri</v>
       </c>
     </row>
@@ -1670,15 +2076,15 @@
       <c r="A8">
         <v>71</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="16" t="s">
         <v>81</v>
       </c>
       <c r="C8" t="str">
-        <f>VLOOKUP(B8,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>NAHWU (ALFIYAH IBNU MALIK I)</v>
       </c>
       <c r="D8" t="str">
-        <f>VLOOKUP(A8,PAKET,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>W I Putra/Putri</v>
       </c>
     </row>
@@ -1686,15 +2092,15 @@
       <c r="A9">
         <v>71</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="16" t="s">
         <v>83</v>
       </c>
       <c r="C9" t="str">
-        <f>VLOOKUP(B9,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>QOWAIDUL I’ROB</v>
       </c>
       <c r="D9" t="str">
-        <f>VLOOKUP(A9,PAKET,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>W I Putra/Putri</v>
       </c>
     </row>
@@ -1702,15 +2108,15 @@
       <c r="A10">
         <v>71</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="16" t="s">
         <v>82</v>
       </c>
       <c r="C10" t="str">
-        <f>VLOOKUP(B10,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>ILMU HADITS (NADMUL BAIQUNI)</v>
       </c>
       <c r="D10" t="str">
-        <f>VLOOKUP(A10,PAKET,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>W I Putra/Putri</v>
       </c>
     </row>
@@ -1718,15 +2124,15 @@
       <c r="A11">
         <v>71</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="16" t="s">
         <v>103</v>
       </c>
       <c r="C11" t="str">
-        <f>VLOOKUP(B11,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>TAUHID (FATHUL MAJID I)</v>
       </c>
       <c r="D11" t="str">
-        <f>VLOOKUP(A11,PAKET,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>W I Putra/Putri</v>
       </c>
     </row>
@@ -1734,15 +2140,15 @@
       <c r="A12">
         <v>71</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C12" t="str">
-        <f>VLOOKUP(B12,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>USHUL FIQIH (MABADI’UL AWALIYAH)</v>
       </c>
       <c r="D12" t="str">
-        <f>VLOOKUP(A12,PAKET,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>W I Putra/Putri</v>
       </c>
     </row>
@@ -1750,15 +2156,15 @@
       <c r="A13">
         <v>61</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="16" t="s">
         <v>79</v>
       </c>
       <c r="C13" t="str">
-        <f>VLOOKUP(B13,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>NAHWU (IMRITHI)</v>
       </c>
       <c r="D13" t="str">
-        <f>VLOOKUP(A13,PAKET,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>6 Putra/Putri</v>
       </c>
     </row>
@@ -1766,15 +2172,15 @@
       <c r="A14">
         <v>61</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="16" t="s">
         <v>80</v>
       </c>
       <c r="C14" t="str">
-        <f>VLOOKUP(B14,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>HADITS (BULUGHUL MAROM)</v>
       </c>
       <c r="D14" t="str">
-        <f>VLOOKUP(A14,PAKET,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>6 Putra/Putri</v>
       </c>
     </row>
@@ -1782,15 +2188,15 @@
       <c r="A15">
         <v>61</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="16" t="s">
         <v>105</v>
       </c>
       <c r="C15" t="str">
-        <f>VLOOKUP(B15,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>SHOROF (MAQSHUD)</v>
       </c>
       <c r="D15" t="str">
-        <f>VLOOKUP(A15,PAKET,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>6 Putra/Putri</v>
       </c>
     </row>
@@ -1798,15 +2204,15 @@
       <c r="A16">
         <v>61</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="16" t="s">
         <v>106</v>
       </c>
       <c r="C16" t="str">
-        <f>VLOOKUP(B16,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>TAUHID (TIJANNUD DARORI)</v>
       </c>
       <c r="D16" t="str">
-        <f>VLOOKUP(A16,PAKET,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>6 Putra/Putri</v>
       </c>
     </row>
@@ -1814,15 +2220,15 @@
       <c r="A17">
         <v>51</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="16" t="s">
         <v>74</v>
       </c>
       <c r="C17" t="str">
-        <f>VLOOKUP(B17,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>NAHWU (DURROTUL YATIMAH)</v>
       </c>
       <c r="D17" t="str">
-        <f>VLOOKUP(A17,PAKET,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>5 Putra</v>
       </c>
     </row>
@@ -1830,15 +2236,15 @@
       <c r="A18">
         <v>51</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="16" t="s">
         <v>78</v>
       </c>
       <c r="C18" t="str">
-        <f>VLOOKUP(B18,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>AKHLAQ (AKHLAQUL BANIN III)</v>
       </c>
       <c r="D18" t="str">
-        <f>VLOOKUP(A18,PAKET,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>5 Putra</v>
       </c>
     </row>
@@ -1846,15 +2252,15 @@
       <c r="A19">
         <v>51</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="16" t="s">
         <v>76</v>
       </c>
       <c r="C19" t="str">
-        <f>VLOOKUP(B19,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>KHULASOH NURUL YAQIN 3</v>
       </c>
       <c r="D19" t="str">
-        <f>VLOOKUP(A19,PAKET,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>5 Putra</v>
       </c>
     </row>
@@ -1862,15 +2268,15 @@
       <c r="A20">
         <v>51</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C20" t="str">
-        <f>VLOOKUP(B20,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>TAJWID (HIDAYATUL MUSTAFID)</v>
       </c>
       <c r="D20" t="str">
-        <f>VLOOKUP(A20,PAKET,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>5 Putra</v>
       </c>
     </row>
@@ -1878,15 +2284,15 @@
       <c r="A21">
         <v>51</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="16" t="s">
         <v>107</v>
       </c>
       <c r="C21" t="str">
-        <f>VLOOKUP(B21,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>TAFSIR (IBRIZ III)</v>
       </c>
       <c r="D21" t="str">
-        <f>VLOOKUP(A21,PAKET,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>5 Putra</v>
       </c>
     </row>
@@ -1894,15 +2300,15 @@
       <c r="A22">
         <v>51</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="16" t="s">
         <v>108</v>
       </c>
       <c r="C22" t="str">
-        <f>VLOOKUP(B22,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>HADITS (BULUGHUL MAROM)</v>
       </c>
       <c r="D22" t="str">
-        <f>VLOOKUP(A22,PAKET,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>5 Putra</v>
       </c>
     </row>
@@ -1910,15 +2316,15 @@
       <c r="A23">
         <v>41</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C23" t="str">
-        <f>VLOOKUP(B23,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>NAHWU (AWAMILUL JURJAN)</v>
       </c>
       <c r="D23" t="str">
-        <f>VLOOKUP(A23,PAKET,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>4 Putra</v>
       </c>
     </row>
@@ -1926,15 +2332,15 @@
       <c r="A24">
         <v>41</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C24" t="str">
-        <f>VLOOKUP(B24,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>BHS. ARAB (MADARIJ DURUSUL AROBIYAH II)</v>
       </c>
       <c r="D24" t="str">
-        <f>VLOOKUP(A24,PAKET,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>4 Putra</v>
       </c>
     </row>
@@ -1942,15 +2348,15 @@
       <c r="A25">
         <v>41</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="16" t="s">
         <v>72</v>
       </c>
       <c r="C25" t="str">
-        <f>VLOOKUP(B25,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>AKHLAQ (AKHLAQUL BANIN II)</v>
       </c>
       <c r="D25" t="str">
-        <f>VLOOKUP(A25,PAKET,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>4 Putra</v>
       </c>
     </row>
@@ -1958,15 +2364,15 @@
       <c r="A26">
         <v>41</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="16" t="s">
         <v>70</v>
       </c>
       <c r="C26" t="str">
-        <f>VLOOKUP(B26,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>KHULASOH NURUL YAQIN II</v>
       </c>
       <c r="D26" t="str">
-        <f>VLOOKUP(A26,PAKET,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>4 Putra</v>
       </c>
     </row>
@@ -1974,15 +2380,15 @@
       <c r="A27">
         <v>41</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="16" t="s">
         <v>109</v>
       </c>
       <c r="C27" t="str">
-        <f>VLOOKUP(B27,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>TAJWID (MATAN JAZARIYAH)</v>
       </c>
       <c r="D27" t="str">
-        <f>VLOOKUP(A27,PAKET,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>4 Putra</v>
       </c>
     </row>
@@ -1990,15 +2396,15 @@
       <c r="A28">
         <v>41</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="16" t="s">
         <v>110</v>
       </c>
       <c r="C28" t="str">
-        <f>VLOOKUP(B28,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>TAFSIR (IBRIZ II)</v>
       </c>
       <c r="D28" t="str">
-        <f>VLOOKUP(A28,PAKET,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>4 Putra</v>
       </c>
     </row>
@@ -2006,15 +2412,15 @@
       <c r="A29">
         <v>31</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C29" t="str">
-        <f>VLOOKUP(B29,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>MATAN AJURUMIYAH &amp; NADHOM IMRITHI</v>
       </c>
       <c r="D29" t="str">
-        <f>VLOOKUP(A29,PAKET,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>3 Putra</v>
       </c>
     </row>
@@ -2022,15 +2428,15 @@
       <c r="A30">
         <v>31</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C30" t="str">
-        <f>VLOOKUP(B30,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>IMLA’</v>
       </c>
       <c r="D30" t="str">
-        <f>VLOOKUP(A30,PAKET,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>3 Putra</v>
       </c>
     </row>
@@ -2038,15 +2444,15 @@
       <c r="A31">
         <v>31</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="16" t="s">
         <v>67</v>
       </c>
       <c r="C31" t="str">
-        <f>VLOOKUP(B31,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>BHS. ARAB (MADARIJ DURUSUL AROBIYAH I)</v>
       </c>
       <c r="D31" t="str">
-        <f>VLOOKUP(A31,PAKET,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>3 Putra</v>
       </c>
     </row>
@@ -2054,15 +2460,15 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C32" t="str">
-        <f>VLOOKUP(B32,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>TAJWID (TUHFATUL ATFAL)</v>
       </c>
       <c r="D32" t="str">
-        <f>VLOOKUP(A32,PAKET,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>3 Putra</v>
       </c>
     </row>
@@ -2070,15 +2476,15 @@
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="16" t="s">
         <v>65</v>
       </c>
       <c r="C33" t="str">
-        <f>VLOOKUP(B33,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>TAFSIR (IBRIZ I)</v>
       </c>
       <c r="D33" t="str">
-        <f>VLOOKUP(A33,PAKET,2,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>3 Putra</v>
       </c>
     </row>
@@ -2086,15 +2492,15 @@
       <c r="A34">
         <v>31</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="16" t="s">
         <v>64</v>
       </c>
       <c r="C34" t="str">
-        <f>VLOOKUP(B34,PELAJARAN,2,FALSE)</f>
+        <f t="shared" ref="C34:C65" si="2">VLOOKUP(B34,PELAJARAN,2,FALSE)</f>
         <v>AKHLAQ (AKHLAQUL BANIN I)</v>
       </c>
       <c r="D34" t="str">
-        <f>VLOOKUP(A34,PAKET,2,FALSE)</f>
+        <f t="shared" ref="D34:D66" si="3">VLOOKUP(A34,PAKET,2,FALSE)</f>
         <v>3 Putra</v>
       </c>
     </row>
@@ -2102,15 +2508,15 @@
       <c r="A35">
         <v>31</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="16" t="s">
         <v>112</v>
       </c>
       <c r="C35" t="str">
-        <f>VLOOKUP(B35,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>FIQIH (MABADIUL FIQHIYAH III)</v>
       </c>
       <c r="D35" t="str">
-        <f>VLOOKUP(A35,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>3 Putra</v>
       </c>
     </row>
@@ -2118,15 +2524,15 @@
       <c r="A36">
         <v>21</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C36" t="str">
-        <f>VLOOKUP(B36,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>NAHWU (NAHWU JAWAN)</v>
       </c>
       <c r="D36" t="str">
-        <f>VLOOKUP(A36,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>2 Putra/Putri</v>
       </c>
     </row>
@@ -2134,15 +2540,15 @@
       <c r="A37">
         <v>21</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C37" t="str">
-        <f>VLOOKUP(B37,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>PEGON</v>
       </c>
       <c r="D37" t="str">
-        <f>VLOOKUP(A37,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>2 Putra/Putri</v>
       </c>
     </row>
@@ -2150,15 +2556,15 @@
       <c r="A38">
         <v>21</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="16" t="s">
         <v>61</v>
       </c>
       <c r="C38" t="str">
-        <f>VLOOKUP(B38,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>AKHLAQ (MATLAB)</v>
       </c>
       <c r="D38" t="str">
-        <f>VLOOKUP(A38,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>2 Putra/Putri</v>
       </c>
     </row>
@@ -2166,15 +2572,15 @@
       <c r="A39">
         <v>21</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="16" t="s">
         <v>60</v>
       </c>
       <c r="C39" t="str">
-        <f>VLOOKUP(B39,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>TAUHID (SULAMUD DIYANAH)</v>
       </c>
       <c r="D39" t="str">
-        <f>VLOOKUP(A39,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>2 Putra/Putri</v>
       </c>
     </row>
@@ -2182,15 +2588,15 @@
       <c r="A40">
         <v>21</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="16" t="s">
         <v>113</v>
       </c>
       <c r="C40" t="str">
-        <f>VLOOKUP(B40,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>FIQIH (MABADIUL FIQHIYAH I)</v>
       </c>
       <c r="D40" t="str">
-        <f>VLOOKUP(A40,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>2 Putra/Putri</v>
       </c>
     </row>
@@ -2198,15 +2604,15 @@
       <c r="A41">
         <v>21</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="16" t="s">
         <v>114</v>
       </c>
       <c r="C41" t="str">
-        <f>VLOOKUP(B41,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>QIRO’ATUL KUTUB (SULAM TAUFIQ)</v>
       </c>
       <c r="D41" t="str">
-        <f>VLOOKUP(A41,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>2 Putra/Putri</v>
       </c>
     </row>
@@ -2214,15 +2620,15 @@
       <c r="A42">
         <v>11</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C42" t="str">
-        <f>VLOOKUP(B42,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>FIQIH (FASHOLATAN)</v>
       </c>
       <c r="D42" t="str">
-        <f>VLOOKUP(A42,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1 Putra/Putri</v>
       </c>
     </row>
@@ -2230,15 +2636,15 @@
       <c r="A43">
         <v>11</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C43" t="str">
-        <f>VLOOKUP(B43,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>QIRO’ATUL KUTUB (SAFINATUN NAJAH)</v>
       </c>
       <c r="D43" t="str">
-        <f>VLOOKUP(A43,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1 Putra/Putri</v>
       </c>
     </row>
@@ -2246,15 +2652,15 @@
       <c r="A44">
         <v>11</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C44" t="str">
-        <f>VLOOKUP(B44,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>AKHLAQ (BIRRUL WALIDAIKUM)</v>
       </c>
       <c r="D44" t="str">
-        <f>VLOOKUP(A44,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1 Putra/Putri</v>
       </c>
     </row>
@@ -2262,15 +2668,15 @@
       <c r="A45">
         <v>11</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="16" t="s">
         <v>56</v>
       </c>
       <c r="C45" t="str">
-        <f>VLOOKUP(B45,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>HADITS (BUDI LUHUR)</v>
       </c>
       <c r="D45" t="str">
-        <f>VLOOKUP(A45,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1 Putra/Putri</v>
       </c>
     </row>
@@ -2278,15 +2684,15 @@
       <c r="A46">
         <v>11</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="16" t="s">
         <v>115</v>
       </c>
       <c r="C46" t="str">
-        <f>VLOOKUP(B46,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>PEGO (ALA NGALAH)</v>
       </c>
       <c r="D46" t="str">
-        <f>VLOOKUP(A46,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1 Putra/Putri</v>
       </c>
     </row>
@@ -2294,15 +2700,15 @@
       <c r="A47">
         <v>11</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="16" t="s">
         <v>116</v>
       </c>
       <c r="C47" t="str">
-        <f>VLOOKUP(B47,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>TAHSINUL KHOT(ALA NGALAH)</v>
       </c>
       <c r="D47" t="str">
-        <f>VLOOKUP(A47,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1 Putra/Putri</v>
       </c>
     </row>
@@ -2310,15 +2716,15 @@
       <c r="A48">
         <v>52</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="16" t="s">
         <v>74</v>
       </c>
       <c r="C48" t="str">
-        <f>VLOOKUP(B48,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>NAHWU (DURROTUL YATIMAH)</v>
       </c>
       <c r="D48" t="str">
-        <f>VLOOKUP(A48,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>5 Putri</v>
       </c>
     </row>
@@ -2326,15 +2732,15 @@
       <c r="A49">
         <v>52</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="16" t="s">
         <v>77</v>
       </c>
       <c r="C49" t="str">
-        <f>VLOOKUP(B49,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>AKHLAQ (AKHLAQUL BANAT III)</v>
       </c>
       <c r="D49" t="str">
-        <f>VLOOKUP(A49,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>5 Putri</v>
       </c>
     </row>
@@ -2342,15 +2748,15 @@
       <c r="A50">
         <v>52</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="16" t="s">
         <v>76</v>
       </c>
       <c r="C50" t="str">
-        <f>VLOOKUP(B50,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>KHULASOH NURUL YAQIN 3</v>
       </c>
       <c r="D50" t="str">
-        <f>VLOOKUP(A50,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>5 Putri</v>
       </c>
     </row>
@@ -2358,15 +2764,15 @@
       <c r="A51">
         <v>52</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="16" t="s">
         <v>75</v>
       </c>
       <c r="C51" t="str">
-        <f>VLOOKUP(B51,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>TAJWID (HIDAYATUL MUSTAFID)</v>
       </c>
       <c r="D51" t="str">
-        <f>VLOOKUP(A51,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>5 Putri</v>
       </c>
     </row>
@@ -2374,15 +2780,15 @@
       <c r="A52">
         <v>52</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="16" t="s">
         <v>107</v>
       </c>
       <c r="C52" t="str">
-        <f>VLOOKUP(B52,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>TAFSIR (IBRIZ III)</v>
       </c>
       <c r="D52" t="str">
-        <f>VLOOKUP(A52,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>5 Putri</v>
       </c>
     </row>
@@ -2390,15 +2796,15 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="16" t="s">
         <v>108</v>
       </c>
       <c r="C53" t="str">
-        <f>VLOOKUP(B53,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>HADITS (BULUGHUL MAROM)</v>
       </c>
       <c r="D53" t="str">
-        <f>VLOOKUP(A53,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>5 Putri</v>
       </c>
     </row>
@@ -2406,15 +2812,15 @@
       <c r="A54">
         <v>42</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C54" t="str">
-        <f>VLOOKUP(B54,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>NAHWU (AWAMILUL JURJAN)</v>
       </c>
       <c r="D54" t="str">
-        <f>VLOOKUP(A54,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4 Putri</v>
       </c>
     </row>
@@ -2422,15 +2828,15 @@
       <c r="A55">
         <v>42</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="16" t="s">
         <v>73</v>
       </c>
       <c r="C55" t="str">
-        <f>VLOOKUP(B55,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>BHS. ARAB (MADARIJ DURUSUL AROBIYAH II)</v>
       </c>
       <c r="D55" t="str">
-        <f>VLOOKUP(A55,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4 Putri</v>
       </c>
     </row>
@@ -2438,15 +2844,15 @@
       <c r="A56">
         <v>42</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C56" t="str">
-        <f>VLOOKUP(B56,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>AKHLAQ (AKHLAQUL BANAT II)</v>
       </c>
       <c r="D56" t="str">
-        <f>VLOOKUP(A56,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4 Putri</v>
       </c>
     </row>
@@ -2454,15 +2860,15 @@
       <c r="A57">
         <v>42</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="16" t="s">
         <v>70</v>
       </c>
       <c r="C57" t="str">
-        <f>VLOOKUP(B57,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>KHULASOH NURUL YAQIN II</v>
       </c>
       <c r="D57" t="str">
-        <f>VLOOKUP(A57,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4 Putri</v>
       </c>
     </row>
@@ -2470,15 +2876,15 @@
       <c r="A58">
         <v>42</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="16" t="s">
         <v>109</v>
       </c>
       <c r="C58" t="str">
-        <f>VLOOKUP(B58,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>TAJWID (MATAN JAZARIYAH)</v>
       </c>
       <c r="D58" t="str">
-        <f>VLOOKUP(A58,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4 Putri</v>
       </c>
     </row>
@@ -2486,15 +2892,15 @@
       <c r="A59">
         <v>42</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="16" t="s">
         <v>110</v>
       </c>
       <c r="C59" t="str">
-        <f>VLOOKUP(B59,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>TAFSIR (IBRIZ II)</v>
       </c>
       <c r="D59" t="str">
-        <f>VLOOKUP(A59,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4 Putri</v>
       </c>
     </row>
@@ -2502,15 +2908,15 @@
       <c r="A60">
         <v>32</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C60" t="str">
-        <f>VLOOKUP(B60,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>MATAN AJURUMIYAH &amp; NADHOM IMRITHI</v>
       </c>
       <c r="D60" t="str">
-        <f>VLOOKUP(A60,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>3 Putri</v>
       </c>
     </row>
@@ -2518,15 +2924,15 @@
       <c r="A61">
         <v>32</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C61" t="str">
-        <f>VLOOKUP(B61,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>IMLA’</v>
       </c>
       <c r="D61" t="str">
-        <f>VLOOKUP(A61,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>3 Putri</v>
       </c>
     </row>
@@ -2534,15 +2940,15 @@
       <c r="A62">
         <v>32</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="16" t="s">
         <v>67</v>
       </c>
       <c r="C62" t="str">
-        <f>VLOOKUP(B62,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>BHS. ARAB (MADARIJ DURUSUL AROBIYAH I)</v>
       </c>
       <c r="D62" t="str">
-        <f>VLOOKUP(A62,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>3 Putri</v>
       </c>
     </row>
@@ -2550,15 +2956,15 @@
       <c r="A63">
         <v>32</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="16" t="s">
         <v>66</v>
       </c>
       <c r="C63" t="str">
-        <f>VLOOKUP(B63,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>TAJWID (TUHFATUL ATFAL)</v>
       </c>
       <c r="D63" t="str">
-        <f>VLOOKUP(A63,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>3 Putri</v>
       </c>
     </row>
@@ -2566,15 +2972,15 @@
       <c r="A64">
         <v>32</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="16" t="s">
         <v>65</v>
       </c>
       <c r="C64" t="str">
-        <f>VLOOKUP(B64,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>TAFSIR (IBRIZ I)</v>
       </c>
       <c r="D64" t="str">
-        <f>VLOOKUP(A64,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>3 Putri</v>
       </c>
     </row>
@@ -2582,15 +2988,15 @@
       <c r="A65">
         <v>32</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="16" t="s">
         <v>111</v>
       </c>
       <c r="C65" t="str">
-        <f>VLOOKUP(B65,PELAJARAN,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>AKHLAQ (AKHLAQUL BANAT I)</v>
       </c>
       <c r="D65" t="str">
-        <f>VLOOKUP(A65,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>3 Putri</v>
       </c>
     </row>
@@ -2598,15 +3004,15 @@
       <c r="A66">
         <v>32</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="16" t="s">
         <v>112</v>
       </c>
       <c r="C66" t="str">
-        <f>VLOOKUP(B66,PELAJARAN,2,FALSE)</f>
+        <f t="shared" ref="C66" si="4">VLOOKUP(B66,PELAJARAN,2,FALSE)</f>
         <v>FIQIH (MABADIUL FIQHIYAH III)</v>
       </c>
       <c r="D66" t="str">
-        <f>VLOOKUP(A66,PAKET,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>3 Putri</v>
       </c>
     </row>
@@ -2614,4 +3020,4964 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XFC131"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2">
+        <v>830079</v>
+      </c>
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2">
+        <v>14850</v>
+      </c>
+      <c r="H2" s="6">
+        <v>24000</v>
+      </c>
+      <c r="I2" s="6">
+        <f>H2-G2</f>
+        <v>9150</v>
+      </c>
+      <c r="J2" s="6">
+        <f>I2*20%</f>
+        <v>1830</v>
+      </c>
+      <c r="K2" s="6">
+        <f>H2-J2</f>
+        <v>22170</v>
+      </c>
+      <c r="L2">
+        <v>1900</v>
+      </c>
+      <c r="M2" s="6">
+        <f>H2-L2</f>
+        <v>22100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3">
+        <v>830092</v>
+      </c>
+      <c r="E3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3">
+        <v>28600</v>
+      </c>
+      <c r="H3" s="6">
+        <v>40000</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" ref="I3:I75" si="0">H3-G3</f>
+        <v>11400</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" ref="J3:J4" si="1">I3*20%</f>
+        <v>2280</v>
+      </c>
+      <c r="K3" s="6">
+        <f>H3-J3</f>
+        <v>37720</v>
+      </c>
+      <c r="L3">
+        <v>2300</v>
+      </c>
+      <c r="M3" s="6">
+        <f>H3-L3</f>
+        <v>37700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4">
+        <v>830293</v>
+      </c>
+      <c r="E4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4">
+        <v>2240</v>
+      </c>
+      <c r="H4" s="6">
+        <v>3500</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" si="0"/>
+        <v>1260</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
+      <c r="K4" s="6">
+        <f>H4-J4</f>
+        <v>3248</v>
+      </c>
+      <c r="L4">
+        <v>300</v>
+      </c>
+      <c r="M4" s="6">
+        <f>H4-L4</f>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="13">
+        <f t="shared" ref="G5:M5" si="2">SUM(G2:G4)</f>
+        <v>45690</v>
+      </c>
+      <c r="H5" s="14">
+        <f t="shared" si="2"/>
+        <v>67500</v>
+      </c>
+      <c r="I5" s="14">
+        <f t="shared" si="2"/>
+        <v>21810</v>
+      </c>
+      <c r="J5" s="14">
+        <f t="shared" si="2"/>
+        <v>4362</v>
+      </c>
+      <c r="K5" s="14">
+        <f t="shared" si="2"/>
+        <v>63138</v>
+      </c>
+      <c r="L5" s="14">
+        <f t="shared" si="2"/>
+        <v>4500</v>
+      </c>
+      <c r="M5" s="14">
+        <f t="shared" si="2"/>
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7">
+        <v>830123</v>
+      </c>
+      <c r="E7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7">
+        <v>16000</v>
+      </c>
+      <c r="H7" s="6">
+        <v>22000</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="J7" s="6">
+        <f>I7*20%</f>
+        <v>1200</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" ref="K7:K77" si="3">H7-J7</f>
+        <v>20800</v>
+      </c>
+      <c r="L7">
+        <v>1200</v>
+      </c>
+      <c r="M7" s="6">
+        <f t="shared" ref="M7:M77" si="4">H7-L7</f>
+        <v>20800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8">
+        <v>830297</v>
+      </c>
+      <c r="E8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8">
+        <v>7150</v>
+      </c>
+      <c r="H8" s="6">
+        <v>11000</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="0"/>
+        <v>3850</v>
+      </c>
+      <c r="J8" s="6">
+        <f>I8*20%</f>
+        <v>770</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="3"/>
+        <v>10230</v>
+      </c>
+      <c r="L8">
+        <v>800</v>
+      </c>
+      <c r="M8" s="6">
+        <f t="shared" si="4"/>
+        <v>10200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="E9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" ref="J9" si="5">I9*20%</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="26"/>
+      <c r="G10" s="12">
+        <f t="shared" ref="G10:M10" si="6">SUM(G7:G9)</f>
+        <v>23150</v>
+      </c>
+      <c r="H10" s="14">
+        <f t="shared" si="6"/>
+        <v>33000</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" si="6"/>
+        <v>9850</v>
+      </c>
+      <c r="J10" s="14">
+        <f t="shared" si="6"/>
+        <v>1970</v>
+      </c>
+      <c r="K10" s="14">
+        <f t="shared" si="6"/>
+        <v>31030</v>
+      </c>
+      <c r="L10" s="14">
+        <f t="shared" si="6"/>
+        <v>2000</v>
+      </c>
+      <c r="M10" s="14">
+        <f t="shared" si="6"/>
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="8"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12">
+        <v>830123</v>
+      </c>
+      <c r="E12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" t="s">
+        <v>144</v>
+      </c>
+      <c r="G12">
+        <v>16000</v>
+      </c>
+      <c r="H12" s="6">
+        <v>22000</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="J12" s="6">
+        <f>I12*20%</f>
+        <v>1200</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="3"/>
+        <v>20800</v>
+      </c>
+      <c r="L12">
+        <v>1200</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="4"/>
+        <v>20800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13">
+        <v>830301</v>
+      </c>
+      <c r="E13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13">
+        <v>2400</v>
+      </c>
+      <c r="H13" s="6">
+        <v>3500</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" ref="J13:J16" si="7">I13*20%</f>
+        <v>220</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="3"/>
+        <v>3280</v>
+      </c>
+      <c r="L13">
+        <v>300</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="4"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14">
+        <v>830282</v>
+      </c>
+      <c r="E14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14">
+        <v>4290</v>
+      </c>
+      <c r="H14" s="6">
+        <v>7500</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="0"/>
+        <v>3210</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="7"/>
+        <v>642</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="3"/>
+        <v>6858</v>
+      </c>
+      <c r="L14">
+        <v>600</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" si="4"/>
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15">
+        <v>830298</v>
+      </c>
+      <c r="E15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15">
+        <v>3600</v>
+      </c>
+      <c r="H15" s="6">
+        <v>5500</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="0"/>
+        <v>1900</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="7"/>
+        <v>380</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" si="3"/>
+        <v>5120</v>
+      </c>
+      <c r="L15">
+        <v>400</v>
+      </c>
+      <c r="M15" s="6">
+        <f t="shared" si="4"/>
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="9"/>
+      <c r="D16">
+        <v>830299</v>
+      </c>
+      <c r="E16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16">
+        <v>3575</v>
+      </c>
+      <c r="H16" s="6">
+        <v>6000</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="0"/>
+        <v>2425</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="7"/>
+        <v>485</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" si="3"/>
+        <v>5515</v>
+      </c>
+      <c r="L16">
+        <v>500</v>
+      </c>
+      <c r="M16" s="6">
+        <f t="shared" si="4"/>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="12">
+        <f t="shared" ref="G17:M17" si="8">SUM(G12:G16)</f>
+        <v>29865</v>
+      </c>
+      <c r="H17" s="14">
+        <f t="shared" si="8"/>
+        <v>44500</v>
+      </c>
+      <c r="I17" s="14">
+        <f t="shared" si="8"/>
+        <v>14635</v>
+      </c>
+      <c r="J17" s="14">
+        <f t="shared" si="8"/>
+        <v>2927</v>
+      </c>
+      <c r="K17" s="14">
+        <f t="shared" si="8"/>
+        <v>41573</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" si="8"/>
+        <v>3000</v>
+      </c>
+      <c r="M17" s="14">
+        <f t="shared" si="8"/>
+        <v>41500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="M18" s="14"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="17">
+        <v>6</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19">
+        <v>830499</v>
+      </c>
+      <c r="E19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19">
+        <v>21600</v>
+      </c>
+      <c r="H19" s="6">
+        <v>27000</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="0"/>
+        <v>5400</v>
+      </c>
+      <c r="J19" s="6">
+        <f>I19*20%</f>
+        <v>1080</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="3"/>
+        <v>25920</v>
+      </c>
+      <c r="L19">
+        <v>1100</v>
+      </c>
+      <c r="M19" s="6">
+        <f t="shared" si="4"/>
+        <v>25900</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="E20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" ref="J20:J22" si="9">I20*20%</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21">
+        <v>830498</v>
+      </c>
+      <c r="E21" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21">
+        <v>9000</v>
+      </c>
+      <c r="H21" s="6">
+        <v>12000</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="9"/>
+        <v>600</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="3"/>
+        <v>11400</v>
+      </c>
+      <c r="L21">
+        <v>600</v>
+      </c>
+      <c r="M21" s="6">
+        <f t="shared" si="4"/>
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22">
+        <v>830280</v>
+      </c>
+      <c r="E22" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" t="s">
+        <v>154</v>
+      </c>
+      <c r="G22">
+        <v>1375</v>
+      </c>
+      <c r="H22" s="6">
+        <v>3000</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="0"/>
+        <v>1625</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" si="9"/>
+        <v>325</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="3"/>
+        <v>2675</v>
+      </c>
+      <c r="L22">
+        <v>300</v>
+      </c>
+      <c r="M22" s="6">
+        <f t="shared" si="4"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="25"/>
+      <c r="C23" s="15"/>
+      <c r="G23" s="12">
+        <f t="shared" ref="G23:M23" si="10">SUM(G19:G22)</f>
+        <v>31975</v>
+      </c>
+      <c r="H23" s="14">
+        <f t="shared" si="10"/>
+        <v>42000</v>
+      </c>
+      <c r="I23" s="14">
+        <f t="shared" si="10"/>
+        <v>10025</v>
+      </c>
+      <c r="J23" s="14">
+        <f t="shared" si="10"/>
+        <v>2005</v>
+      </c>
+      <c r="K23" s="14">
+        <f t="shared" si="10"/>
+        <v>39995</v>
+      </c>
+      <c r="L23" s="12">
+        <f t="shared" si="10"/>
+        <v>2000</v>
+      </c>
+      <c r="M23" s="14">
+        <f t="shared" si="10"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="M24" s="6"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25" s="17">
+        <v>5</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25">
+        <v>870022</v>
+      </c>
+      <c r="E25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" t="s">
+        <v>155</v>
+      </c>
+      <c r="G25">
+        <v>3500</v>
+      </c>
+      <c r="H25" s="6">
+        <v>5000</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="J25" s="6">
+        <f>I25*20%</f>
+        <v>300</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" si="3"/>
+        <v>4700</v>
+      </c>
+      <c r="L25">
+        <v>200</v>
+      </c>
+      <c r="M25" s="6">
+        <f t="shared" si="4"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26">
+        <v>830042</v>
+      </c>
+      <c r="E26" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26">
+        <v>3500</v>
+      </c>
+      <c r="H26" s="6">
+        <v>5500</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="J26" s="6">
+        <f t="shared" ref="J26:J86" si="11">I26*20%</f>
+        <v>400</v>
+      </c>
+      <c r="K26" s="6">
+        <f t="shared" si="3"/>
+        <v>5100</v>
+      </c>
+      <c r="L26">
+        <v>200</v>
+      </c>
+      <c r="M26" s="6">
+        <f t="shared" si="4"/>
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27">
+        <v>830054</v>
+      </c>
+      <c r="E27" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27">
+        <v>3750</v>
+      </c>
+      <c r="H27" s="6">
+        <v>6000</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" si="0"/>
+        <v>2250</v>
+      </c>
+      <c r="J27" s="6">
+        <f t="shared" si="11"/>
+        <v>450</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" si="3"/>
+        <v>5550</v>
+      </c>
+      <c r="L27">
+        <v>300</v>
+      </c>
+      <c r="M27" s="6">
+        <f t="shared" si="4"/>
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28">
+        <v>830063</v>
+      </c>
+      <c r="E28" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28">
+        <v>2750</v>
+      </c>
+      <c r="H28" s="6">
+        <v>4500</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+      <c r="J28" s="6">
+        <f t="shared" si="11"/>
+        <v>350</v>
+      </c>
+      <c r="K28" s="6">
+        <f t="shared" si="3"/>
+        <v>4150</v>
+      </c>
+      <c r="L28">
+        <v>300</v>
+      </c>
+      <c r="M28" s="6">
+        <f t="shared" si="4"/>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29">
+        <v>830305</v>
+      </c>
+      <c r="E29" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" t="s">
+        <v>163</v>
+      </c>
+      <c r="G29">
+        <v>4760</v>
+      </c>
+      <c r="H29" s="6">
+        <v>7000</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" si="0"/>
+        <v>2240</v>
+      </c>
+      <c r="J29" s="6">
+        <f t="shared" si="11"/>
+        <v>448</v>
+      </c>
+      <c r="K29" s="6">
+        <f t="shared" si="3"/>
+        <v>6552</v>
+      </c>
+      <c r="L29">
+        <v>500</v>
+      </c>
+      <c r="M29" s="6">
+        <f t="shared" si="4"/>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30">
+        <v>830117</v>
+      </c>
+      <c r="E30" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30">
+        <v>13475</v>
+      </c>
+      <c r="H30" s="6">
+        <v>20000</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" si="0"/>
+        <v>6525</v>
+      </c>
+      <c r="J30" s="6">
+        <f t="shared" si="11"/>
+        <v>1305</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" si="3"/>
+        <v>18695</v>
+      </c>
+      <c r="L30">
+        <v>1500</v>
+      </c>
+      <c r="M30" s="6">
+        <f t="shared" si="4"/>
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="12">
+        <f t="shared" ref="G31:M31" si="12">SUM(G25:G30)</f>
+        <v>31735</v>
+      </c>
+      <c r="H31" s="14">
+        <f t="shared" si="12"/>
+        <v>48000</v>
+      </c>
+      <c r="I31" s="14">
+        <f t="shared" si="12"/>
+        <v>16265</v>
+      </c>
+      <c r="J31" s="14">
+        <f t="shared" si="12"/>
+        <v>3253</v>
+      </c>
+      <c r="K31" s="14">
+        <f t="shared" si="12"/>
+        <v>44747</v>
+      </c>
+      <c r="L31" s="12">
+        <f t="shared" si="12"/>
+        <v>3000</v>
+      </c>
+      <c r="M31" s="14">
+        <f t="shared" si="12"/>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="M32" s="14"/>
+    </row>
+    <row r="33" spans="1:13 16383:16383" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" s="17">
+        <v>5</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33">
+        <v>870022</v>
+      </c>
+      <c r="E33" t="s">
+        <v>137</v>
+      </c>
+      <c r="F33" t="s">
+        <v>155</v>
+      </c>
+      <c r="G33">
+        <v>3500</v>
+      </c>
+      <c r="H33" s="6">
+        <v>5000</v>
+      </c>
+      <c r="I33" s="6">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="J33" s="6">
+        <f t="shared" si="11"/>
+        <v>300</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" si="3"/>
+        <v>4700</v>
+      </c>
+      <c r="L33">
+        <v>200</v>
+      </c>
+      <c r="M33" s="6">
+        <f t="shared" si="4"/>
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13 16383:16383" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34">
+        <v>830051</v>
+      </c>
+      <c r="E34" t="s">
+        <v>156</v>
+      </c>
+      <c r="F34" t="s">
+        <v>165</v>
+      </c>
+      <c r="G34">
+        <v>4100</v>
+      </c>
+      <c r="H34" s="6">
+        <v>6000</v>
+      </c>
+      <c r="I34" s="6">
+        <f t="shared" si="0"/>
+        <v>1900</v>
+      </c>
+      <c r="J34" s="6">
+        <f t="shared" si="11"/>
+        <v>380</v>
+      </c>
+      <c r="K34" s="6">
+        <f t="shared" si="3"/>
+        <v>5620</v>
+      </c>
+      <c r="L34">
+        <v>200</v>
+      </c>
+      <c r="M34" s="6">
+        <f t="shared" si="4"/>
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13 16383:16383" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35">
+        <v>830054</v>
+      </c>
+      <c r="E35" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" t="s">
+        <v>159</v>
+      </c>
+      <c r="G35">
+        <v>3750</v>
+      </c>
+      <c r="H35" s="6">
+        <v>6000</v>
+      </c>
+      <c r="I35" s="6">
+        <f t="shared" si="0"/>
+        <v>2250</v>
+      </c>
+      <c r="J35" s="6">
+        <f t="shared" si="11"/>
+        <v>450</v>
+      </c>
+      <c r="K35" s="6">
+        <f t="shared" si="3"/>
+        <v>5550</v>
+      </c>
+      <c r="L35">
+        <v>300</v>
+      </c>
+      <c r="M35" s="6">
+        <f t="shared" si="4"/>
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13 16383:16383" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36">
+        <v>830063</v>
+      </c>
+      <c r="E36" t="s">
+        <v>160</v>
+      </c>
+      <c r="F36" t="s">
+        <v>161</v>
+      </c>
+      <c r="G36">
+        <v>2750</v>
+      </c>
+      <c r="H36" s="6">
+        <v>4500</v>
+      </c>
+      <c r="I36" s="6">
+        <f t="shared" si="0"/>
+        <v>1750</v>
+      </c>
+      <c r="J36" s="6">
+        <f t="shared" si="11"/>
+        <v>350</v>
+      </c>
+      <c r="K36" s="6">
+        <f t="shared" si="3"/>
+        <v>4150</v>
+      </c>
+      <c r="L36">
+        <v>300</v>
+      </c>
+      <c r="M36" s="6">
+        <f t="shared" si="4"/>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13 16383:16383" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37">
+        <v>830305</v>
+      </c>
+      <c r="E37" t="s">
+        <v>162</v>
+      </c>
+      <c r="F37" t="s">
+        <v>163</v>
+      </c>
+      <c r="G37">
+        <v>4760</v>
+      </c>
+      <c r="H37" s="6">
+        <v>7000</v>
+      </c>
+      <c r="I37" s="6">
+        <f t="shared" si="0"/>
+        <v>2240</v>
+      </c>
+      <c r="J37" s="6">
+        <f t="shared" si="11"/>
+        <v>448</v>
+      </c>
+      <c r="K37" s="6">
+        <f t="shared" si="3"/>
+        <v>6552</v>
+      </c>
+      <c r="L37">
+        <v>500</v>
+      </c>
+      <c r="M37" s="6">
+        <f t="shared" si="4"/>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13 16383:16383" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>6</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38">
+        <v>830117</v>
+      </c>
+      <c r="E38" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" t="s">
+        <v>151</v>
+      </c>
+      <c r="G38">
+        <v>13475</v>
+      </c>
+      <c r="H38" s="6">
+        <v>20000</v>
+      </c>
+      <c r="I38" s="6">
+        <f t="shared" si="0"/>
+        <v>6525</v>
+      </c>
+      <c r="J38" s="6">
+        <f t="shared" si="11"/>
+        <v>1305</v>
+      </c>
+      <c r="K38" s="6">
+        <f t="shared" si="3"/>
+        <v>18695</v>
+      </c>
+      <c r="L38">
+        <v>1500</v>
+      </c>
+      <c r="M38" s="6">
+        <f t="shared" si="4"/>
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13 16383:16383" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="12">
+        <f t="shared" ref="G39:M39" si="13">SUM(G33:G38)</f>
+        <v>32335</v>
+      </c>
+      <c r="H39" s="14">
+        <f t="shared" si="13"/>
+        <v>48500</v>
+      </c>
+      <c r="I39" s="14">
+        <f t="shared" si="13"/>
+        <v>16165</v>
+      </c>
+      <c r="J39" s="14">
+        <f t="shared" si="13"/>
+        <v>3233</v>
+      </c>
+      <c r="K39" s="14">
+        <f t="shared" si="13"/>
+        <v>45267</v>
+      </c>
+      <c r="L39" s="14">
+        <f t="shared" si="13"/>
+        <v>3000</v>
+      </c>
+      <c r="M39" s="14">
+        <f t="shared" si="13"/>
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13 16383:16383" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+    </row>
+    <row r="41" spans="1:13 16383:16383" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" s="17">
+        <v>4</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41">
+        <v>830064</v>
+      </c>
+      <c r="E41" t="s">
+        <v>137</v>
+      </c>
+      <c r="F41" t="s">
+        <v>166</v>
+      </c>
+      <c r="G41">
+        <v>2400</v>
+      </c>
+      <c r="H41" s="6">
+        <v>4000</v>
+      </c>
+      <c r="I41" s="6">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="J41" s="6">
+        <f t="shared" si="11"/>
+        <v>320</v>
+      </c>
+      <c r="K41" s="6">
+        <f t="shared" si="3"/>
+        <v>3680</v>
+      </c>
+      <c r="L41">
+        <v>300</v>
+      </c>
+      <c r="M41" s="6">
+        <f t="shared" si="4"/>
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13 16383:16383" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42">
+        <v>830041</v>
+      </c>
+      <c r="E42" t="s">
+        <v>156</v>
+      </c>
+      <c r="F42" t="s">
+        <v>167</v>
+      </c>
+      <c r="G42">
+        <v>2500</v>
+      </c>
+      <c r="H42" s="6">
+        <v>4000</v>
+      </c>
+      <c r="I42" s="6">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="J42" s="6">
+        <f t="shared" si="11"/>
+        <v>300</v>
+      </c>
+      <c r="K42" s="6">
+        <f t="shared" si="3"/>
+        <v>3700</v>
+      </c>
+      <c r="L42">
+        <v>300</v>
+      </c>
+      <c r="M42" s="6">
+        <f t="shared" si="4"/>
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13 16383:16383" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43">
+        <v>830053</v>
+      </c>
+      <c r="E43" t="s">
+        <v>158</v>
+      </c>
+      <c r="F43" t="s">
+        <v>168</v>
+      </c>
+      <c r="G43">
+        <v>6425</v>
+      </c>
+      <c r="H43" s="6">
+        <v>9500</v>
+      </c>
+      <c r="I43" s="6">
+        <f t="shared" si="0"/>
+        <v>3075</v>
+      </c>
+      <c r="J43" s="6">
+        <f t="shared" si="11"/>
+        <v>615</v>
+      </c>
+      <c r="K43" s="6">
+        <f t="shared" si="3"/>
+        <v>8885</v>
+      </c>
+      <c r="L43">
+        <v>700</v>
+      </c>
+      <c r="M43" s="6">
+        <f t="shared" si="4"/>
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13 16383:16383" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44">
+        <v>830506</v>
+      </c>
+      <c r="E44" t="s">
+        <v>160</v>
+      </c>
+      <c r="F44" t="s">
+        <v>169</v>
+      </c>
+      <c r="G44">
+        <v>3025</v>
+      </c>
+      <c r="H44" s="6">
+        <v>4500</v>
+      </c>
+      <c r="I44" s="6">
+        <f t="shared" si="0"/>
+        <v>1475</v>
+      </c>
+      <c r="J44" s="6">
+        <f t="shared" si="11"/>
+        <v>295</v>
+      </c>
+      <c r="K44" s="6">
+        <f t="shared" si="3"/>
+        <v>4205</v>
+      </c>
+      <c r="L44">
+        <v>300</v>
+      </c>
+      <c r="M44" s="6">
+        <f t="shared" si="4"/>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13 16383:16383" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45">
+        <v>830308</v>
+      </c>
+      <c r="E45" t="s">
+        <v>162</v>
+      </c>
+      <c r="F45" t="s">
+        <v>170</v>
+      </c>
+      <c r="G45">
+        <v>4550</v>
+      </c>
+      <c r="H45" s="6">
+        <v>7000</v>
+      </c>
+      <c r="I45" s="6">
+        <f t="shared" si="0"/>
+        <v>2450</v>
+      </c>
+      <c r="J45" s="6">
+        <f t="shared" si="11"/>
+        <v>490</v>
+      </c>
+      <c r="K45" s="6">
+        <f t="shared" si="3"/>
+        <v>6510</v>
+      </c>
+      <c r="L45">
+        <v>500</v>
+      </c>
+      <c r="M45" s="6">
+        <f t="shared" si="4"/>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13 16383:16383" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>6</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46">
+        <v>830304</v>
+      </c>
+      <c r="E46" t="s">
+        <v>171</v>
+      </c>
+      <c r="F46" t="s">
+        <v>172</v>
+      </c>
+      <c r="G46">
+        <v>5000</v>
+      </c>
+      <c r="H46" s="6">
+        <v>7000</v>
+      </c>
+      <c r="I46" s="6">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="J46" s="6">
+        <f t="shared" si="11"/>
+        <v>400</v>
+      </c>
+      <c r="K46" s="6">
+        <f t="shared" si="3"/>
+        <v>6600</v>
+      </c>
+      <c r="L46">
+        <v>400</v>
+      </c>
+      <c r="M46" s="6">
+        <f t="shared" si="4"/>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13 16383:16383" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G47" s="12">
+        <f t="shared" ref="G47:M47" si="14">SUM(G41:G46)</f>
+        <v>23900</v>
+      </c>
+      <c r="H47" s="14">
+        <f t="shared" si="14"/>
+        <v>36000</v>
+      </c>
+      <c r="I47" s="14">
+        <f t="shared" si="14"/>
+        <v>12100</v>
+      </c>
+      <c r="J47" s="14">
+        <f t="shared" si="14"/>
+        <v>2420</v>
+      </c>
+      <c r="K47" s="14">
+        <f t="shared" si="14"/>
+        <v>33580</v>
+      </c>
+      <c r="L47" s="14">
+        <f t="shared" si="14"/>
+        <v>2500</v>
+      </c>
+      <c r="M47" s="14">
+        <f t="shared" si="14"/>
+        <v>33500</v>
+      </c>
+      <c r="XFC47" s="12">
+        <f>SUM(A47:XFB47)</f>
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13 16383:16383" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49" s="17">
+        <v>4</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D49">
+        <v>830064</v>
+      </c>
+      <c r="E49" t="s">
+        <v>137</v>
+      </c>
+      <c r="F49" t="s">
+        <v>166</v>
+      </c>
+      <c r="G49">
+        <v>2400</v>
+      </c>
+      <c r="H49" s="6">
+        <v>4000</v>
+      </c>
+      <c r="I49" s="6">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="J49" s="6">
+        <f t="shared" si="11"/>
+        <v>320</v>
+      </c>
+      <c r="K49" s="6">
+        <f t="shared" si="3"/>
+        <v>3680</v>
+      </c>
+      <c r="L49">
+        <v>300</v>
+      </c>
+      <c r="M49" s="6">
+        <f t="shared" si="4"/>
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50">
+        <v>830050</v>
+      </c>
+      <c r="E50" t="s">
+        <v>156</v>
+      </c>
+      <c r="F50" t="s">
+        <v>173</v>
+      </c>
+      <c r="G50">
+        <v>3675</v>
+      </c>
+      <c r="H50" s="6">
+        <v>5500</v>
+      </c>
+      <c r="I50" s="6">
+        <f t="shared" si="0"/>
+        <v>1825</v>
+      </c>
+      <c r="J50" s="6">
+        <f t="shared" si="11"/>
+        <v>365</v>
+      </c>
+      <c r="K50" s="6">
+        <f t="shared" si="3"/>
+        <v>5135</v>
+      </c>
+      <c r="L50">
+        <v>300</v>
+      </c>
+      <c r="M50" s="6">
+        <f t="shared" si="4"/>
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51">
+        <v>830053</v>
+      </c>
+      <c r="E51" t="s">
+        <v>158</v>
+      </c>
+      <c r="F51" t="s">
+        <v>168</v>
+      </c>
+      <c r="G51">
+        <v>6425</v>
+      </c>
+      <c r="H51" s="6">
+        <v>9500</v>
+      </c>
+      <c r="I51" s="6">
+        <f t="shared" si="0"/>
+        <v>3075</v>
+      </c>
+      <c r="J51" s="6">
+        <f t="shared" si="11"/>
+        <v>615</v>
+      </c>
+      <c r="K51" s="6">
+        <f t="shared" si="3"/>
+        <v>8885</v>
+      </c>
+      <c r="L51">
+        <v>700</v>
+      </c>
+      <c r="M51" s="6">
+        <f t="shared" si="4"/>
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52">
+        <v>830506</v>
+      </c>
+      <c r="E52" t="s">
+        <v>160</v>
+      </c>
+      <c r="F52" t="s">
+        <v>169</v>
+      </c>
+      <c r="G52">
+        <v>3025</v>
+      </c>
+      <c r="H52" s="6">
+        <v>4500</v>
+      </c>
+      <c r="I52" s="6">
+        <f t="shared" si="0"/>
+        <v>1475</v>
+      </c>
+      <c r="J52" s="6">
+        <f t="shared" si="11"/>
+        <v>295</v>
+      </c>
+      <c r="K52" s="6">
+        <f t="shared" si="3"/>
+        <v>4205</v>
+      </c>
+      <c r="L52">
+        <v>300</v>
+      </c>
+      <c r="M52" s="6">
+        <f t="shared" si="4"/>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53">
+        <v>830308</v>
+      </c>
+      <c r="E53" t="s">
+        <v>162</v>
+      </c>
+      <c r="F53" t="s">
+        <v>170</v>
+      </c>
+      <c r="G53">
+        <v>4550</v>
+      </c>
+      <c r="H53" s="6">
+        <v>7000</v>
+      </c>
+      <c r="I53" s="6">
+        <f t="shared" si="0"/>
+        <v>2450</v>
+      </c>
+      <c r="J53" s="6">
+        <f t="shared" si="11"/>
+        <v>490</v>
+      </c>
+      <c r="K53" s="6">
+        <f t="shared" si="3"/>
+        <v>6510</v>
+      </c>
+      <c r="L53">
+        <v>500</v>
+      </c>
+      <c r="M53" s="6">
+        <f t="shared" si="4"/>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>6</v>
+      </c>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54">
+        <v>830304</v>
+      </c>
+      <c r="E54" t="s">
+        <v>171</v>
+      </c>
+      <c r="F54" t="s">
+        <v>172</v>
+      </c>
+      <c r="G54">
+        <v>5000</v>
+      </c>
+      <c r="H54" s="6">
+        <v>7000</v>
+      </c>
+      <c r="I54" s="6">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="J54" s="6">
+        <f t="shared" si="11"/>
+        <v>400</v>
+      </c>
+      <c r="K54" s="6">
+        <f t="shared" si="3"/>
+        <v>6600</v>
+      </c>
+      <c r="L54">
+        <v>400</v>
+      </c>
+      <c r="M54" s="6">
+        <f t="shared" si="4"/>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G55" s="12">
+        <f t="shared" ref="G55:M55" si="15">SUM(G49:G54)</f>
+        <v>25075</v>
+      </c>
+      <c r="H55" s="14">
+        <f t="shared" si="15"/>
+        <v>37500</v>
+      </c>
+      <c r="I55" s="14">
+        <f t="shared" si="15"/>
+        <v>12425</v>
+      </c>
+      <c r="J55" s="14">
+        <f t="shared" si="15"/>
+        <v>2485</v>
+      </c>
+      <c r="K55" s="14">
+        <f t="shared" si="15"/>
+        <v>35015</v>
+      </c>
+      <c r="L55" s="14">
+        <f t="shared" si="15"/>
+        <v>2500</v>
+      </c>
+      <c r="M55" s="14">
+        <f t="shared" si="15"/>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" s="17">
+        <v>3</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57">
+        <v>830505</v>
+      </c>
+      <c r="E57" t="s">
+        <v>137</v>
+      </c>
+      <c r="F57" t="s">
+        <v>174</v>
+      </c>
+      <c r="G57">
+        <v>2250</v>
+      </c>
+      <c r="H57" s="6">
+        <v>3500</v>
+      </c>
+      <c r="I57" s="6">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+      <c r="J57" s="6">
+        <f t="shared" si="11"/>
+        <v>250</v>
+      </c>
+      <c r="K57" s="6">
+        <f t="shared" si="3"/>
+        <v>3250</v>
+      </c>
+      <c r="L57">
+        <v>300</v>
+      </c>
+      <c r="M57" s="6">
+        <f t="shared" si="4"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58">
+        <v>830040</v>
+      </c>
+      <c r="E58" t="s">
+        <v>156</v>
+      </c>
+      <c r="F58" t="s">
+        <v>175</v>
+      </c>
+      <c r="G58">
+        <v>1875</v>
+      </c>
+      <c r="H58" s="6">
+        <v>3500</v>
+      </c>
+      <c r="I58" s="6">
+        <f t="shared" si="0"/>
+        <v>1625</v>
+      </c>
+      <c r="J58" s="6">
+        <f t="shared" si="11"/>
+        <v>325</v>
+      </c>
+      <c r="K58" s="6">
+        <f t="shared" si="3"/>
+        <v>3175</v>
+      </c>
+      <c r="L58">
+        <v>300</v>
+      </c>
+      <c r="M58" s="6">
+        <f t="shared" si="4"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59">
+        <v>830034</v>
+      </c>
+      <c r="E59" t="s">
+        <v>176</v>
+      </c>
+      <c r="F59" t="s">
+        <v>177</v>
+      </c>
+      <c r="G59">
+        <v>4500</v>
+      </c>
+      <c r="H59" s="6">
+        <v>6500</v>
+      </c>
+      <c r="I59" s="6">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="J59" s="6">
+        <f t="shared" si="11"/>
+        <v>400</v>
+      </c>
+      <c r="K59" s="6">
+        <f t="shared" si="3"/>
+        <v>6100</v>
+      </c>
+      <c r="L59">
+        <v>400</v>
+      </c>
+      <c r="M59" s="6">
+        <f t="shared" si="4"/>
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60">
+        <v>830309</v>
+      </c>
+      <c r="E60" t="s">
+        <v>160</v>
+      </c>
+      <c r="F60" t="s">
+        <v>178</v>
+      </c>
+      <c r="G60">
+        <v>1375</v>
+      </c>
+      <c r="H60" s="6">
+        <v>3000</v>
+      </c>
+      <c r="I60" s="6">
+        <f t="shared" si="0"/>
+        <v>1625</v>
+      </c>
+      <c r="J60" s="6">
+        <f t="shared" si="11"/>
+        <v>325</v>
+      </c>
+      <c r="K60" s="6">
+        <f t="shared" si="3"/>
+        <v>2675</v>
+      </c>
+      <c r="L60">
+        <v>400</v>
+      </c>
+      <c r="M60" s="6">
+        <f t="shared" si="4"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61">
+        <v>830310</v>
+      </c>
+      <c r="E61" t="s">
+        <v>162</v>
+      </c>
+      <c r="F61" t="s">
+        <v>179</v>
+      </c>
+      <c r="G61">
+        <v>4760</v>
+      </c>
+      <c r="H61" s="6">
+        <v>7000</v>
+      </c>
+      <c r="I61" s="6">
+        <f t="shared" si="0"/>
+        <v>2240</v>
+      </c>
+      <c r="J61" s="6">
+        <f t="shared" si="11"/>
+        <v>448</v>
+      </c>
+      <c r="K61" s="6">
+        <f t="shared" si="3"/>
+        <v>6552</v>
+      </c>
+      <c r="L61">
+        <v>500</v>
+      </c>
+      <c r="M61" s="6">
+        <f t="shared" si="4"/>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62">
+        <v>830116</v>
+      </c>
+      <c r="E62" t="s">
+        <v>171</v>
+      </c>
+      <c r="F62" t="s">
+        <v>180</v>
+      </c>
+      <c r="G62">
+        <v>4500</v>
+      </c>
+      <c r="H62" s="6">
+        <v>7000</v>
+      </c>
+      <c r="I62" s="6">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="J62" s="6">
+        <f t="shared" si="11"/>
+        <v>500</v>
+      </c>
+      <c r="K62" s="6">
+        <f t="shared" si="3"/>
+        <v>6500</v>
+      </c>
+      <c r="L62">
+        <v>600</v>
+      </c>
+      <c r="M62" s="6">
+        <f t="shared" si="4"/>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>7</v>
+      </c>
+      <c r="E63" t="s">
+        <v>181</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63" s="6">
+        <v>0</v>
+      </c>
+      <c r="I63" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K63" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G64" s="12">
+        <f t="shared" ref="G64:M64" si="16">SUM(G57:G63)</f>
+        <v>19260</v>
+      </c>
+      <c r="H64" s="14">
+        <f t="shared" si="16"/>
+        <v>30500</v>
+      </c>
+      <c r="I64" s="14">
+        <f t="shared" si="16"/>
+        <v>11240</v>
+      </c>
+      <c r="J64" s="14">
+        <f t="shared" si="16"/>
+        <v>2248</v>
+      </c>
+      <c r="K64" s="14">
+        <f t="shared" si="16"/>
+        <v>28252</v>
+      </c>
+      <c r="L64" s="14">
+        <f t="shared" si="16"/>
+        <v>2500</v>
+      </c>
+      <c r="M64" s="14">
+        <f t="shared" si="16"/>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H65" s="14"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="14"/>
+      <c r="M65" s="14"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" s="17">
+        <v>3</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="D66">
+        <v>830505</v>
+      </c>
+      <c r="E66" t="s">
+        <v>137</v>
+      </c>
+      <c r="F66" t="s">
+        <v>174</v>
+      </c>
+      <c r="G66">
+        <v>2250</v>
+      </c>
+      <c r="H66" s="6">
+        <v>3500</v>
+      </c>
+      <c r="I66" s="6">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+      <c r="J66" s="6">
+        <f t="shared" si="11"/>
+        <v>250</v>
+      </c>
+      <c r="K66" s="6">
+        <f t="shared" si="3"/>
+        <v>3250</v>
+      </c>
+      <c r="L66">
+        <v>300</v>
+      </c>
+      <c r="M66" s="6">
+        <f t="shared" si="4"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67">
+        <v>830049</v>
+      </c>
+      <c r="E67" t="s">
+        <v>156</v>
+      </c>
+      <c r="F67" t="s">
+        <v>182</v>
+      </c>
+      <c r="G67">
+        <v>2700</v>
+      </c>
+      <c r="H67" s="6">
+        <v>4000</v>
+      </c>
+      <c r="I67" s="6">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="J67" s="6">
+        <f t="shared" si="11"/>
+        <v>260</v>
+      </c>
+      <c r="K67" s="6">
+        <f t="shared" si="3"/>
+        <v>3740</v>
+      </c>
+      <c r="L67">
+        <v>300</v>
+      </c>
+      <c r="M67" s="6">
+        <f t="shared" si="4"/>
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68">
+        <v>830034</v>
+      </c>
+      <c r="E68" t="s">
+        <v>176</v>
+      </c>
+      <c r="F68" t="s">
+        <v>177</v>
+      </c>
+      <c r="G68">
+        <v>4500</v>
+      </c>
+      <c r="H68" s="6">
+        <v>6500</v>
+      </c>
+      <c r="I68" s="6">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="J68" s="6">
+        <f t="shared" si="11"/>
+        <v>400</v>
+      </c>
+      <c r="K68" s="6">
+        <f t="shared" si="3"/>
+        <v>6100</v>
+      </c>
+      <c r="L68">
+        <v>400</v>
+      </c>
+      <c r="M68" s="6">
+        <f t="shared" si="4"/>
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69">
+        <v>830309</v>
+      </c>
+      <c r="E69" t="s">
+        <v>160</v>
+      </c>
+      <c r="F69" t="s">
+        <v>178</v>
+      </c>
+      <c r="G69">
+        <v>1375</v>
+      </c>
+      <c r="H69" s="6">
+        <v>3000</v>
+      </c>
+      <c r="I69" s="6">
+        <f t="shared" si="0"/>
+        <v>1625</v>
+      </c>
+      <c r="J69" s="6">
+        <f t="shared" si="11"/>
+        <v>325</v>
+      </c>
+      <c r="K69" s="6">
+        <f t="shared" si="3"/>
+        <v>2675</v>
+      </c>
+      <c r="L69">
+        <v>400</v>
+      </c>
+      <c r="M69" s="6">
+        <f t="shared" si="4"/>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>5</v>
+      </c>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70">
+        <v>830310</v>
+      </c>
+      <c r="E70" t="s">
+        <v>162</v>
+      </c>
+      <c r="F70" t="s">
+        <v>179</v>
+      </c>
+      <c r="G70">
+        <v>4760</v>
+      </c>
+      <c r="H70" s="6">
+        <v>7000</v>
+      </c>
+      <c r="I70" s="6">
+        <f t="shared" si="0"/>
+        <v>2240</v>
+      </c>
+      <c r="J70" s="6">
+        <f t="shared" si="11"/>
+        <v>448</v>
+      </c>
+      <c r="K70" s="6">
+        <f t="shared" si="3"/>
+        <v>6552</v>
+      </c>
+      <c r="L70">
+        <v>500</v>
+      </c>
+      <c r="M70" s="6">
+        <f t="shared" si="4"/>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>6</v>
+      </c>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71">
+        <v>830116</v>
+      </c>
+      <c r="E71" t="s">
+        <v>171</v>
+      </c>
+      <c r="F71" t="s">
+        <v>180</v>
+      </c>
+      <c r="G71">
+        <v>4500</v>
+      </c>
+      <c r="H71" s="6">
+        <v>7000</v>
+      </c>
+      <c r="I71" s="6">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="J71" s="6">
+        <f t="shared" si="11"/>
+        <v>500</v>
+      </c>
+      <c r="K71" s="6">
+        <f t="shared" si="3"/>
+        <v>6500</v>
+      </c>
+      <c r="L71">
+        <v>600</v>
+      </c>
+      <c r="M71" s="6">
+        <f t="shared" si="4"/>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>7</v>
+      </c>
+      <c r="E72" t="s">
+        <v>181</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72" s="6">
+        <v>0</v>
+      </c>
+      <c r="I72" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G73" s="12">
+        <f t="shared" ref="G73:M73" si="17">SUM(G66:G72)</f>
+        <v>20085</v>
+      </c>
+      <c r="H73" s="14">
+        <f t="shared" si="17"/>
+        <v>31000</v>
+      </c>
+      <c r="I73" s="14">
+        <f t="shared" si="17"/>
+        <v>10915</v>
+      </c>
+      <c r="J73" s="14">
+        <f t="shared" si="17"/>
+        <v>2183</v>
+      </c>
+      <c r="K73" s="14">
+        <f t="shared" si="17"/>
+        <v>28817</v>
+      </c>
+      <c r="L73" s="14">
+        <f t="shared" si="17"/>
+        <v>2500</v>
+      </c>
+      <c r="M73" s="14">
+        <f t="shared" si="17"/>
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H74" s="14"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="14"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" s="17">
+        <v>2</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75">
+        <v>830132</v>
+      </c>
+      <c r="E75" t="s">
+        <v>137</v>
+      </c>
+      <c r="F75" t="s">
+        <v>184</v>
+      </c>
+      <c r="G75" s="12">
+        <v>2500</v>
+      </c>
+      <c r="H75" s="14">
+        <v>3500</v>
+      </c>
+      <c r="I75" s="14">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="J75" s="14">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+      <c r="K75" s="14">
+        <f t="shared" si="3"/>
+        <v>3300</v>
+      </c>
+      <c r="L75" s="12">
+        <v>200</v>
+      </c>
+      <c r="M75" s="14">
+        <f t="shared" si="4"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76" s="17"/>
+      <c r="C76" s="18"/>
+      <c r="D76">
+        <v>830007</v>
+      </c>
+      <c r="E76" t="s">
+        <v>156</v>
+      </c>
+      <c r="F76" t="s">
+        <v>185</v>
+      </c>
+      <c r="G76" s="12">
+        <v>1500</v>
+      </c>
+      <c r="H76" s="14">
+        <v>2500</v>
+      </c>
+      <c r="I76" s="14">
+        <f t="shared" ref="I76:I86" si="18">H76-G76</f>
+        <v>1000</v>
+      </c>
+      <c r="J76" s="14">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+      <c r="K76" s="14">
+        <f t="shared" si="3"/>
+        <v>2300</v>
+      </c>
+      <c r="L76" s="12">
+        <v>200</v>
+      </c>
+      <c r="M76" s="14">
+        <f t="shared" si="4"/>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
+      <c r="D77">
+        <v>830032</v>
+      </c>
+      <c r="E77" t="s">
+        <v>176</v>
+      </c>
+      <c r="F77" t="s">
+        <v>186</v>
+      </c>
+      <c r="G77" s="12">
+        <v>1500</v>
+      </c>
+      <c r="H77" s="14">
+        <v>2500</v>
+      </c>
+      <c r="I77" s="14">
+        <f t="shared" si="18"/>
+        <v>1000</v>
+      </c>
+      <c r="J77" s="14">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+      <c r="K77" s="14">
+        <f t="shared" si="3"/>
+        <v>2300</v>
+      </c>
+      <c r="L77" s="12">
+        <v>200</v>
+      </c>
+      <c r="M77" s="14">
+        <f t="shared" si="4"/>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>4</v>
+      </c>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
+      <c r="D78">
+        <v>830030</v>
+      </c>
+      <c r="E78" t="s">
+        <v>141</v>
+      </c>
+      <c r="F78" t="s">
+        <v>187</v>
+      </c>
+      <c r="G78" s="12">
+        <v>2025</v>
+      </c>
+      <c r="H78" s="14">
+        <v>3500</v>
+      </c>
+      <c r="I78" s="14">
+        <f t="shared" si="18"/>
+        <v>1475</v>
+      </c>
+      <c r="J78" s="14">
+        <f t="shared" si="11"/>
+        <v>295</v>
+      </c>
+      <c r="K78" s="14">
+        <f t="shared" ref="K78:K87" si="19">H78-J78</f>
+        <v>3205</v>
+      </c>
+      <c r="L78" s="12">
+        <v>200</v>
+      </c>
+      <c r="M78" s="14">
+        <f t="shared" ref="M78:M86" si="20">H78-L78</f>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>5</v>
+      </c>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
+      <c r="D79">
+        <v>830144</v>
+      </c>
+      <c r="E79" t="s">
+        <v>188</v>
+      </c>
+      <c r="F79" t="s">
+        <v>195</v>
+      </c>
+      <c r="G79" s="12">
+        <v>1760</v>
+      </c>
+      <c r="H79" s="14">
+        <v>3000</v>
+      </c>
+      <c r="I79" s="14">
+        <f t="shared" si="18"/>
+        <v>1240</v>
+      </c>
+      <c r="J79" s="14">
+        <f t="shared" si="11"/>
+        <v>248</v>
+      </c>
+      <c r="K79" s="14">
+        <f t="shared" si="19"/>
+        <v>2752</v>
+      </c>
+      <c r="L79" s="12">
+        <v>200</v>
+      </c>
+      <c r="M79" s="14">
+        <f t="shared" si="20"/>
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>6</v>
+      </c>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
+      <c r="E80" t="s">
+        <v>181</v>
+      </c>
+      <c r="F80" t="s">
+        <v>189</v>
+      </c>
+      <c r="G80" s="12"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K80" s="14">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L80" s="12"/>
+      <c r="M80" s="14">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G81" s="12">
+        <f t="shared" ref="G81:M81" si="21">SUM(G75:G80)</f>
+        <v>9285</v>
+      </c>
+      <c r="H81" s="14">
+        <f t="shared" si="21"/>
+        <v>15000</v>
+      </c>
+      <c r="I81" s="14">
+        <f t="shared" si="21"/>
+        <v>5715</v>
+      </c>
+      <c r="J81" s="14">
+        <f t="shared" si="21"/>
+        <v>1143</v>
+      </c>
+      <c r="K81" s="14">
+        <f t="shared" si="21"/>
+        <v>13857</v>
+      </c>
+      <c r="L81" s="14">
+        <f t="shared" si="21"/>
+        <v>1000</v>
+      </c>
+      <c r="M81" s="14">
+        <f t="shared" si="21"/>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G82" s="12"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="14"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83" s="17">
+        <v>2</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E83" t="s">
+        <v>189</v>
+      </c>
+      <c r="F83" t="s">
+        <v>190</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83" s="6">
+        <v>0</v>
+      </c>
+      <c r="I83" s="6">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K83" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="6">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84" s="17"/>
+      <c r="C84" s="18"/>
+      <c r="D84">
+        <v>830313</v>
+      </c>
+      <c r="E84" t="s">
+        <v>156</v>
+      </c>
+      <c r="F84" t="s">
+        <v>191</v>
+      </c>
+      <c r="G84">
+        <v>1500</v>
+      </c>
+      <c r="H84" s="6">
+        <v>2500</v>
+      </c>
+      <c r="I84" s="6">
+        <f t="shared" si="18"/>
+        <v>1000</v>
+      </c>
+      <c r="J84" s="6">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+      <c r="K84" s="6">
+        <f t="shared" si="19"/>
+        <v>2300</v>
+      </c>
+      <c r="L84">
+        <v>200</v>
+      </c>
+      <c r="M84" s="6">
+        <f t="shared" si="20"/>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85" s="17"/>
+      <c r="C85" s="18"/>
+      <c r="D85">
+        <v>830312</v>
+      </c>
+      <c r="E85" t="s">
+        <v>176</v>
+      </c>
+      <c r="F85" t="s">
+        <v>192</v>
+      </c>
+      <c r="G85">
+        <v>3700</v>
+      </c>
+      <c r="H85" s="6">
+        <v>5500</v>
+      </c>
+      <c r="I85" s="6">
+        <f t="shared" si="18"/>
+        <v>1800</v>
+      </c>
+      <c r="J85" s="6">
+        <f t="shared" si="11"/>
+        <v>360</v>
+      </c>
+      <c r="K85" s="6">
+        <f t="shared" si="19"/>
+        <v>5140</v>
+      </c>
+      <c r="L85">
+        <v>300</v>
+      </c>
+      <c r="M85" s="6">
+        <f t="shared" si="20"/>
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>4</v>
+      </c>
+      <c r="B86" s="17"/>
+      <c r="C86" s="18"/>
+      <c r="D86">
+        <v>880094</v>
+      </c>
+      <c r="E86" t="s">
+        <v>150</v>
+      </c>
+      <c r="F86" t="s">
+        <v>193</v>
+      </c>
+      <c r="G86">
+        <v>1500</v>
+      </c>
+      <c r="H86" s="6">
+        <v>2500</v>
+      </c>
+      <c r="I86" s="6">
+        <f t="shared" si="18"/>
+        <v>1000</v>
+      </c>
+      <c r="J86" s="6">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+      <c r="K86" s="6">
+        <f t="shared" si="19"/>
+        <v>2300</v>
+      </c>
+      <c r="L86">
+        <v>200</v>
+      </c>
+      <c r="M86" s="6">
+        <f t="shared" si="20"/>
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>5</v>
+      </c>
+      <c r="B87" s="17"/>
+      <c r="C87" s="18"/>
+      <c r="E87" t="s">
+        <v>194</v>
+      </c>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6">
+        <f t="shared" ref="I87" si="22">H87-G87</f>
+        <v>0</v>
+      </c>
+      <c r="J87" s="6">
+        <f t="shared" ref="J87" si="23">I87*20%</f>
+        <v>0</v>
+      </c>
+      <c r="K87" s="6">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="17"/>
+      <c r="C88" s="18"/>
+      <c r="G88" s="12">
+        <f t="shared" ref="G88:M88" si="24">SUM(G83:G87)</f>
+        <v>6700</v>
+      </c>
+      <c r="H88" s="14">
+        <f t="shared" si="24"/>
+        <v>10500</v>
+      </c>
+      <c r="I88" s="14">
+        <f t="shared" si="24"/>
+        <v>3800</v>
+      </c>
+      <c r="J88" s="14">
+        <f t="shared" si="24"/>
+        <v>760</v>
+      </c>
+      <c r="K88" s="14">
+        <f t="shared" si="24"/>
+        <v>9740</v>
+      </c>
+      <c r="L88" s="14">
+        <f t="shared" si="24"/>
+        <v>700</v>
+      </c>
+      <c r="M88" s="14">
+        <f t="shared" si="24"/>
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+    </row>
+    <row r="97" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+    </row>
+    <row r="98" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+    </row>
+    <row r="99" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+    </row>
+    <row r="100" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+    </row>
+    <row r="101" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+    </row>
+    <row r="102" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+    </row>
+    <row r="103" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+    </row>
+    <row r="104" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+    </row>
+    <row r="105" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H105" s="6"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="6"/>
+      <c r="K105" s="6"/>
+    </row>
+    <row r="106" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H106" s="6"/>
+      <c r="I106" s="6"/>
+      <c r="J106" s="6"/>
+      <c r="K106" s="6"/>
+    </row>
+    <row r="107" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H107" s="6"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="6"/>
+      <c r="K107" s="6"/>
+    </row>
+    <row r="108" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H108" s="6"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="6"/>
+    </row>
+    <row r="109" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H109" s="6"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="6"/>
+    </row>
+    <row r="110" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
+    </row>
+    <row r="111" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+    </row>
+    <row r="112" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H112" s="6"/>
+      <c r="I112" s="6"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+    </row>
+    <row r="113" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+    </row>
+    <row r="114" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+    </row>
+    <row r="115" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6"/>
+    </row>
+    <row r="116" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+    </row>
+    <row r="117" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H117" s="6"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="6"/>
+      <c r="K117" s="6"/>
+    </row>
+    <row r="118" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+    </row>
+    <row r="119" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+    </row>
+    <row r="120" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+    </row>
+    <row r="121" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H121" s="6"/>
+      <c r="I121" s="6"/>
+      <c r="J121" s="6"/>
+      <c r="K121" s="6"/>
+    </row>
+    <row r="122" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="6"/>
+    </row>
+    <row r="123" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H123" s="6"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="6"/>
+      <c r="K123" s="6"/>
+    </row>
+    <row r="124" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H124" s="6"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="6"/>
+    </row>
+    <row r="125" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="6"/>
+      <c r="K125" s="6"/>
+    </row>
+    <row r="126" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="6"/>
+      <c r="K126" s="6"/>
+    </row>
+    <row r="127" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
+      <c r="J127" s="6"/>
+      <c r="K127" s="6"/>
+    </row>
+    <row r="128" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H128" s="6"/>
+      <c r="I128" s="6"/>
+      <c r="J128" s="6"/>
+      <c r="K128" s="6"/>
+    </row>
+    <row r="129" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="6"/>
+      <c r="K129" s="6"/>
+    </row>
+    <row r="130" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="6"/>
+      <c r="K130" s="6"/>
+    </row>
+    <row r="131" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="6"/>
+      <c r="K131" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="C49:C54"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="C57:C62"/>
+    <mergeCell ref="B66:B71"/>
+    <mergeCell ref="C66:C71"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="51.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>14850</v>
+      </c>
+      <c r="D2" s="7">
+        <f>E2-C2</f>
+        <v>9150</v>
+      </c>
+      <c r="E2" s="7">
+        <v>24000</v>
+      </c>
+      <c r="F2" s="7">
+        <f>D2*20%</f>
+        <v>1830</v>
+      </c>
+      <c r="G2" s="7">
+        <f>E2-F2</f>
+        <v>22170</v>
+      </c>
+      <c r="H2" s="7">
+        <v>22000</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>28600</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:D50" si="0">E3-C3</f>
+        <v>11400</v>
+      </c>
+      <c r="E3" s="7">
+        <v>40000</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F51" si="1">D3*20%</f>
+        <v>2280</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G50" si="2">E3-F3</f>
+        <v>37720</v>
+      </c>
+      <c r="H3" s="7">
+        <v>37700</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2240</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" si="0"/>
+        <v>1260</v>
+      </c>
+      <c r="E4" s="7">
+        <v>3500</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" si="2"/>
+        <v>3248</v>
+      </c>
+      <c r="H4" s="7">
+        <v>3300</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7">
+        <v>16000</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="E5" s="7">
+        <v>22000</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="2"/>
+        <v>20800</v>
+      </c>
+      <c r="H5" s="7">
+        <v>20800</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7">
+        <v>7150</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>3850</v>
+      </c>
+      <c r="E6" s="7">
+        <v>11000</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="1"/>
+        <v>770</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="2"/>
+        <v>10230</v>
+      </c>
+      <c r="H6" s="7">
+        <v>10200</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7">
+        <v>16000</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="E8" s="7">
+        <v>22000</v>
+      </c>
+      <c r="F8" s="7">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="G8" s="7">
+        <f t="shared" si="2"/>
+        <v>20800</v>
+      </c>
+      <c r="H8" s="7">
+        <v>20800</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2400</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="E9" s="7">
+        <v>3500</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="2"/>
+        <v>3280</v>
+      </c>
+      <c r="H9" s="7">
+        <v>3200</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="7">
+        <v>4290</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="0"/>
+        <v>3210</v>
+      </c>
+      <c r="E10" s="7">
+        <v>7500</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="1"/>
+        <v>642</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="2"/>
+        <v>6858</v>
+      </c>
+      <c r="H10" s="7">
+        <v>6800</v>
+      </c>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7">
+        <v>3600</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" si="0"/>
+        <v>1900</v>
+      </c>
+      <c r="E11" s="7">
+        <v>5500</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="2"/>
+        <v>5120</v>
+      </c>
+      <c r="H11" s="7">
+        <v>5200</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7">
+        <v>3575</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="0"/>
+        <v>2425</v>
+      </c>
+      <c r="E12" s="7">
+        <v>6000</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="1"/>
+        <v>485</v>
+      </c>
+      <c r="G12" s="7">
+        <f t="shared" si="2"/>
+        <v>5515</v>
+      </c>
+      <c r="H12" s="7">
+        <v>5500</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7">
+        <v>21600</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="0"/>
+        <v>5400</v>
+      </c>
+      <c r="E13" s="7">
+        <v>27000</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="1"/>
+        <v>1080</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="2"/>
+        <v>25920</v>
+      </c>
+      <c r="H13" s="7">
+        <v>26000</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="7">
+        <v>9000</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="E15" s="7">
+        <v>12000</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="G15" s="7">
+        <f t="shared" si="2"/>
+        <v>11400</v>
+      </c>
+      <c r="H15" s="7">
+        <v>11400</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1375</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="0"/>
+        <v>1625</v>
+      </c>
+      <c r="E16" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="1"/>
+        <v>325</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="2"/>
+        <v>2675</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2700</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3500</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="E17" s="7">
+        <v>5000</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="G17" s="7">
+        <f t="shared" si="2"/>
+        <v>4700</v>
+      </c>
+      <c r="H17" s="7">
+        <v>4700</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3500</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="E18" s="7">
+        <v>5500</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="2"/>
+        <v>5100</v>
+      </c>
+      <c r="H18" s="7">
+        <v>5100</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="7">
+        <v>4100</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="0"/>
+        <v>1900</v>
+      </c>
+      <c r="E19" s="7">
+        <v>6000</v>
+      </c>
+      <c r="F19" s="7">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="2"/>
+        <v>5620</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="7">
+        <v>3750</v>
+      </c>
+      <c r="D20" s="7">
+        <f t="shared" si="0"/>
+        <v>2250</v>
+      </c>
+      <c r="E20" s="7">
+        <v>6000</v>
+      </c>
+      <c r="F20" s="7">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="G20" s="7">
+        <f t="shared" si="2"/>
+        <v>5550</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="7">
+        <v>2750</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+      <c r="E21" s="7">
+        <v>4000</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="G21" s="7">
+        <f t="shared" si="2"/>
+        <v>3750</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="7">
+        <v>4760</v>
+      </c>
+      <c r="D22" s="7">
+        <f t="shared" si="0"/>
+        <v>2240</v>
+      </c>
+      <c r="E22" s="7">
+        <v>7000</v>
+      </c>
+      <c r="F22" s="7">
+        <f t="shared" si="1"/>
+        <v>448</v>
+      </c>
+      <c r="G22" s="7">
+        <f t="shared" si="2"/>
+        <v>6552</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="7">
+        <v>13475</v>
+      </c>
+      <c r="D23" s="7">
+        <f t="shared" si="0"/>
+        <v>6525</v>
+      </c>
+      <c r="E23" s="7">
+        <v>20000</v>
+      </c>
+      <c r="F23" s="7">
+        <f t="shared" si="1"/>
+        <v>1305</v>
+      </c>
+      <c r="G23" s="7">
+        <f t="shared" si="2"/>
+        <v>18695</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="7">
+        <v>2400</v>
+      </c>
+      <c r="D24" s="7">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="E24" s="7">
+        <v>4000</v>
+      </c>
+      <c r="F24" s="7">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="G24" s="7">
+        <f t="shared" si="2"/>
+        <v>3680</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="7">
+        <v>5000</v>
+      </c>
+      <c r="D25" s="7">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="E25" s="7">
+        <v>7000</v>
+      </c>
+      <c r="F25" s="7">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="G25" s="7">
+        <f t="shared" si="2"/>
+        <v>6600</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2500</v>
+      </c>
+      <c r="D26" s="7">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="E26" s="7">
+        <v>4000</v>
+      </c>
+      <c r="F26" s="7">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="G26" s="7">
+        <f t="shared" si="2"/>
+        <v>3700</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3675</v>
+      </c>
+      <c r="D27" s="7">
+        <f t="shared" si="0"/>
+        <v>1325</v>
+      </c>
+      <c r="E27" s="7">
+        <v>5000</v>
+      </c>
+      <c r="F27" s="7">
+        <f t="shared" si="1"/>
+        <v>265</v>
+      </c>
+      <c r="G27" s="7">
+        <f t="shared" si="2"/>
+        <v>4735</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="7">
+        <v>6425</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" si="0"/>
+        <v>3075</v>
+      </c>
+      <c r="E28" s="7">
+        <v>9500</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="1"/>
+        <v>615</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="2"/>
+        <v>8885</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="7">
+        <v>3025</v>
+      </c>
+      <c r="D29" s="7">
+        <f t="shared" si="0"/>
+        <v>1475</v>
+      </c>
+      <c r="E29" s="7">
+        <v>4500</v>
+      </c>
+      <c r="F29" s="7">
+        <f t="shared" si="1"/>
+        <v>295</v>
+      </c>
+      <c r="G29" s="7">
+        <f t="shared" si="2"/>
+        <v>4205</v>
+      </c>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="7">
+        <v>4550</v>
+      </c>
+      <c r="D30" s="7">
+        <f t="shared" si="0"/>
+        <v>2450</v>
+      </c>
+      <c r="E30" s="7">
+        <v>7000</v>
+      </c>
+      <c r="F30" s="7">
+        <f t="shared" si="1"/>
+        <v>490</v>
+      </c>
+      <c r="G30" s="7">
+        <f t="shared" si="2"/>
+        <v>6510</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2250</v>
+      </c>
+      <c r="D31" s="7">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+      <c r="E31" s="7">
+        <v>3500</v>
+      </c>
+      <c r="F31" s="7">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="G31" s="7">
+        <f t="shared" si="2"/>
+        <v>3250</v>
+      </c>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="7">
+        <v>4500</v>
+      </c>
+      <c r="D33" s="7">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="E33" s="7">
+        <v>7000</v>
+      </c>
+      <c r="F33" s="7">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G33" s="7">
+        <f t="shared" si="2"/>
+        <v>6500</v>
+      </c>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1375</v>
+      </c>
+      <c r="D34" s="7">
+        <f t="shared" si="0"/>
+        <v>1625</v>
+      </c>
+      <c r="E34" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F34" s="7">
+        <f t="shared" si="1"/>
+        <v>325</v>
+      </c>
+      <c r="G34" s="7">
+        <f t="shared" si="2"/>
+        <v>2675</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="7">
+        <v>4760</v>
+      </c>
+      <c r="D35" s="7">
+        <f t="shared" si="0"/>
+        <v>2240</v>
+      </c>
+      <c r="E35" s="7">
+        <v>7000</v>
+      </c>
+      <c r="F35" s="7">
+        <f t="shared" si="1"/>
+        <v>448</v>
+      </c>
+      <c r="G35" s="7">
+        <f t="shared" si="2"/>
+        <v>6552</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1875</v>
+      </c>
+      <c r="D36" s="7">
+        <f t="shared" si="0"/>
+        <v>1625</v>
+      </c>
+      <c r="E36" s="7">
+        <v>3500</v>
+      </c>
+      <c r="F36" s="7">
+        <f t="shared" si="1"/>
+        <v>325</v>
+      </c>
+      <c r="G36" s="7">
+        <f t="shared" si="2"/>
+        <v>3175</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="7">
+        <v>2700</v>
+      </c>
+      <c r="D37" s="7">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="E37" s="7">
+        <v>4000</v>
+      </c>
+      <c r="F37" s="7">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="G37" s="7">
+        <f t="shared" si="2"/>
+        <v>3740</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="7">
+        <v>4500</v>
+      </c>
+      <c r="D38" s="7">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="E38" s="7">
+        <v>6500</v>
+      </c>
+      <c r="F38" s="7">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="G38" s="7">
+        <f t="shared" si="2"/>
+        <v>6100</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="7">
+        <v>2500</v>
+      </c>
+      <c r="D39" s="7">
+        <v>3500</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="G39" s="7">
+        <f t="shared" si="2"/>
+        <v>-700</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1500</v>
+      </c>
+      <c r="D41" s="7">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="E41" s="7">
+        <v>2500</v>
+      </c>
+      <c r="F41" s="7">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="G41" s="7">
+        <f t="shared" si="2"/>
+        <v>2300</v>
+      </c>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="7">
+        <v>2025</v>
+      </c>
+      <c r="D42" s="7">
+        <f t="shared" si="0"/>
+        <v>1475</v>
+      </c>
+      <c r="E42" s="7">
+        <v>3500</v>
+      </c>
+      <c r="F42" s="7">
+        <f t="shared" si="1"/>
+        <v>295</v>
+      </c>
+      <c r="G42" s="7">
+        <f t="shared" si="2"/>
+        <v>3205</v>
+      </c>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1500</v>
+      </c>
+      <c r="D43" s="7">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="E43" s="7">
+        <v>2500</v>
+      </c>
+      <c r="F43" s="7">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="G43" s="7">
+        <f t="shared" si="2"/>
+        <v>2300</v>
+      </c>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" s="7">
+        <v>1760</v>
+      </c>
+      <c r="D44" s="7">
+        <f t="shared" si="0"/>
+        <v>1240</v>
+      </c>
+      <c r="E44" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F44" s="7">
+        <f t="shared" si="1"/>
+        <v>248</v>
+      </c>
+      <c r="G44" s="7">
+        <f t="shared" si="2"/>
+        <v>2752</v>
+      </c>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="7">
+        <v>3700</v>
+      </c>
+      <c r="D45" s="7">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="E45" s="7">
+        <v>5500</v>
+      </c>
+      <c r="F45" s="7">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="G45" s="7">
+        <f t="shared" si="2"/>
+        <v>5140</v>
+      </c>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="7">
+        <v>1650</v>
+      </c>
+      <c r="D46" s="7">
+        <f t="shared" si="0"/>
+        <v>1350</v>
+      </c>
+      <c r="E46" s="7">
+        <v>3000</v>
+      </c>
+      <c r="F46" s="7">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="G46" s="7">
+        <f t="shared" si="2"/>
+        <v>2730</v>
+      </c>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1500</v>
+      </c>
+      <c r="D47" s="7">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="E47" s="7">
+        <v>2500</v>
+      </c>
+      <c r="F47" s="7">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="G47" s="7">
+        <f t="shared" si="2"/>
+        <v>2300</v>
+      </c>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="7">
+        <v>1500</v>
+      </c>
+      <c r="D48" s="7">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="E48" s="7">
+        <v>2500</v>
+      </c>
+      <c r="F48" s="7">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="G48" s="7">
+        <f t="shared" si="2"/>
+        <v>2300</v>
+      </c>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0</v>
+      </c>
+      <c r="D49" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="7">
+        <v>0</v>
+      </c>
+      <c r="F49" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7">
+        <v>0</v>
+      </c>
+      <c r="K49" s="7"/>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0</v>
+      </c>
+      <c r="D50" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0</v>
+      </c>
+      <c r="F50" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7">
+        <v>0</v>
+      </c>
+      <c r="K50" s="7"/>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/daftar paket.xlsx
+++ b/data/daftar paket.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PAKET" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="198">
   <si>
     <t>BALAGHOH (JAWAHIRUL MAKNUN)</t>
   </si>
@@ -606,13 +606,16 @@
     <t>101 Hadits Budi Luhur</t>
   </si>
   <si>
-    <t>Tahsinul Khot</t>
-  </si>
-  <si>
     <t>sulamut taufiq</t>
   </si>
   <si>
     <t>matpel</t>
+  </si>
+  <si>
+    <t>Qiroatul Kutub</t>
+  </si>
+  <si>
+    <t>Safinatun Najah Jengot</t>
   </si>
 </sst>
 </file>
@@ -741,15 +744,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -760,6 +754,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1228,30 +1231,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="24"/>
-    <col min="2" max="2" width="54.85546875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="23"/>
-    <col min="4" max="4" width="13.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="21"/>
+    <col min="2" max="2" width="54.85546875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="20"/>
+    <col min="4" max="4" width="13.85546875" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="18" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1262,10 +1265,10 @@
       <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="19">
         <v>14850</v>
       </c>
-      <c r="D2" s="22">
+      <c r="D2" s="19">
         <v>22100</v>
       </c>
     </row>
@@ -1276,10 +1279,10 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="19">
         <v>28600</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="19">
         <v>37700</v>
       </c>
     </row>
@@ -1290,10 +1293,10 @@
       <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="19">
         <v>2240</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="19">
         <v>3200</v>
       </c>
     </row>
@@ -1304,10 +1307,10 @@
       <c r="B5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="19">
         <v>16000</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="19">
         <v>20800</v>
       </c>
     </row>
@@ -1318,10 +1321,10 @@
       <c r="B6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="19">
         <v>7150</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="19">
         <v>10200</v>
       </c>
     </row>
@@ -1332,10 +1335,10 @@
       <c r="B7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="19">
         <v>0</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1346,10 +1349,10 @@
       <c r="B8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="19">
         <v>16000</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="19">
         <v>20800</v>
       </c>
     </row>
@@ -1360,10 +1363,10 @@
       <c r="B9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="19">
         <v>2400</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="19">
         <v>3200</v>
       </c>
     </row>
@@ -1374,10 +1377,10 @@
       <c r="B10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="19">
         <v>4290</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="19">
         <v>6900</v>
       </c>
     </row>
@@ -1388,10 +1391,10 @@
       <c r="B11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="19">
         <v>3600</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="19">
         <v>5100</v>
       </c>
     </row>
@@ -1402,10 +1405,10 @@
       <c r="B12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="19">
         <v>3575</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="19">
         <v>5500</v>
       </c>
     </row>
@@ -1416,10 +1419,10 @@
       <c r="B13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="19">
         <v>21600</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="19">
         <v>25900</v>
       </c>
     </row>
@@ -1430,10 +1433,10 @@
       <c r="B14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="19">
         <v>0</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1444,10 +1447,10 @@
       <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="19">
         <v>9000</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="19">
         <v>11400</v>
       </c>
     </row>
@@ -1458,10 +1461,10 @@
       <c r="B16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="19">
         <v>1375</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="19">
         <v>2700</v>
       </c>
     </row>
@@ -1472,10 +1475,10 @@
       <c r="B17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="19">
         <v>3500</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="19">
         <v>4800</v>
       </c>
     </row>
@@ -1486,10 +1489,10 @@
       <c r="B18" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="19">
         <v>3500</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="19">
         <v>5300</v>
       </c>
     </row>
@@ -1500,10 +1503,10 @@
       <c r="B19" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="19">
         <v>4100</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="19">
         <v>5800</v>
       </c>
     </row>
@@ -1514,10 +1517,10 @@
       <c r="B20" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="19">
         <v>3750</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="19">
         <v>5700</v>
       </c>
     </row>
@@ -1528,10 +1531,10 @@
       <c r="B21" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="19">
         <v>2750</v>
       </c>
-      <c r="D21" s="22">
+      <c r="D21" s="19">
         <v>4200</v>
       </c>
     </row>
@@ -1542,10 +1545,10 @@
       <c r="B22" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="19">
         <v>4760</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="19">
         <v>6500</v>
       </c>
     </row>
@@ -1556,10 +1559,10 @@
       <c r="B23" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="19">
         <v>13475</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="19">
         <v>18500</v>
       </c>
     </row>
@@ -1570,10 +1573,10 @@
       <c r="B24" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="19">
         <v>2400</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="19">
         <v>3700</v>
       </c>
     </row>
@@ -1584,10 +1587,10 @@
       <c r="B25" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="19">
         <v>5000</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="19">
         <v>6600</v>
       </c>
     </row>
@@ -1598,10 +1601,10 @@
       <c r="B26" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="19">
         <v>2500</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="19">
         <v>3700</v>
       </c>
     </row>
@@ -1612,10 +1615,10 @@
       <c r="B27" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="19">
         <v>3675</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="19">
         <v>5200</v>
       </c>
     </row>
@@ -1626,10 +1629,10 @@
       <c r="B28" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="19">
         <v>6425</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="19">
         <v>8800</v>
       </c>
     </row>
@@ -1640,10 +1643,10 @@
       <c r="B29" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="19">
         <v>3025</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="19">
         <v>4200</v>
       </c>
     </row>
@@ -1654,10 +1657,10 @@
       <c r="B30" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="19">
         <v>4550</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="19">
         <v>6500</v>
       </c>
     </row>
@@ -1668,10 +1671,10 @@
       <c r="B31" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="19">
         <v>2250</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="19">
         <v>3200</v>
       </c>
     </row>
@@ -1682,10 +1685,10 @@
       <c r="B32" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="19">
         <v>0</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1696,10 +1699,10 @@
       <c r="B33" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="19">
         <v>4500</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="19">
         <v>6400</v>
       </c>
     </row>
@@ -1710,10 +1713,10 @@
       <c r="B34" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="19">
         <v>1375</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="19">
         <v>2600</v>
       </c>
     </row>
@@ -1724,10 +1727,10 @@
       <c r="B35" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="19">
         <v>4760</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="19">
         <v>6500</v>
       </c>
     </row>
@@ -1738,10 +1741,10 @@
       <c r="B36" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36" s="19">
         <v>1875</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="19">
         <v>3200</v>
       </c>
     </row>
@@ -1752,10 +1755,10 @@
       <c r="B37" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C37" s="19">
         <v>2700</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="19">
         <v>3700</v>
       </c>
     </row>
@@ -1766,10 +1769,10 @@
       <c r="B38" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="22">
+      <c r="C38" s="19">
         <v>4500</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="19">
         <v>6100</v>
       </c>
     </row>
@@ -1780,10 +1783,10 @@
       <c r="B39" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="22">
+      <c r="C39" s="19">
         <v>2500</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="19">
         <v>3300</v>
       </c>
     </row>
@@ -1794,10 +1797,10 @@
       <c r="B40" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="22">
+      <c r="C40" s="19">
         <v>0</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1808,10 +1811,10 @@
       <c r="B41" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C41" s="22">
+      <c r="C41" s="19">
         <v>1500</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="19">
         <v>2300</v>
       </c>
     </row>
@@ -1822,10 +1825,10 @@
       <c r="B42" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="22">
+      <c r="C42" s="19">
         <v>2025</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="19">
         <v>3300</v>
       </c>
     </row>
@@ -1836,10 +1839,10 @@
       <c r="B43" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="22">
+      <c r="C43" s="19">
         <v>1500</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="19">
         <v>2300</v>
       </c>
     </row>
@@ -1850,10 +1853,10 @@
       <c r="B44" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C44" s="22">
+      <c r="C44" s="19">
         <v>1760</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="19">
         <v>2800</v>
       </c>
     </row>
@@ -1864,10 +1867,10 @@
       <c r="B45" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="22">
+      <c r="C45" s="19">
         <v>3700</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D45" s="19">
         <v>5200</v>
       </c>
     </row>
@@ -1878,10 +1881,10 @@
       <c r="B46" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C46" s="19">
         <v>0</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1892,10 +1895,10 @@
       <c r="B47" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C47" s="19">
         <v>1500</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="19">
         <v>2300</v>
       </c>
     </row>
@@ -1906,10 +1909,10 @@
       <c r="B48" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C48" s="20">
         <v>1500</v>
       </c>
-      <c r="D48" s="22">
+      <c r="D48" s="19">
         <v>2300</v>
       </c>
     </row>
@@ -1920,10 +1923,10 @@
       <c r="B49" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="23">
+      <c r="C49" s="20">
         <v>0</v>
       </c>
-      <c r="D49" s="22">
+      <c r="D49" s="19">
         <v>0</v>
       </c>
     </row>
@@ -1934,10 +1937,10 @@
       <c r="B50" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C50" s="20">
         <v>0</v>
       </c>
-      <c r="D50" s="22">
+      <c r="D50" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3026,8 +3029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFC131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3073,10 +3076,10 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="24" t="s">
         <v>128</v>
       </c>
       <c r="D2">
@@ -3118,8 +3121,8 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
       <c r="D3">
         <v>830092</v>
       </c>
@@ -3159,8 +3162,8 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
       <c r="D4">
         <v>830293</v>
       </c>
@@ -3197,10 +3200,10 @@
       </c>
     </row>
     <row r="5" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="13">
         <f t="shared" ref="G5:M5" si="2">SUM(G2:G4)</f>
         <v>45690</v>
@@ -3245,10 +3248,10 @@
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="26" t="s">
         <v>183</v>
       </c>
       <c r="D7">
@@ -3290,8 +3293,8 @@
       <c r="A8">
         <v>2</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="26"/>
       <c r="D8">
         <v>830297</v>
       </c>
@@ -3331,8 +3334,8 @@
       <c r="A9">
         <v>3</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="26"/>
       <c r="E9" t="s">
         <v>141</v>
       </c>
@@ -3358,7 +3361,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="26"/>
+      <c r="C10" s="23"/>
       <c r="G10" s="12">
         <f t="shared" ref="G10:M10" si="6">SUM(G7:G9)</f>
         <v>23150</v>
@@ -3401,10 +3404,10 @@
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="26" t="s">
         <v>183</v>
       </c>
       <c r="D12">
@@ -3446,8 +3449,8 @@
       <c r="A13">
         <v>2</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="26"/>
       <c r="D13">
         <v>830301</v>
       </c>
@@ -3487,8 +3490,8 @@
       <c r="A14">
         <v>3</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="26"/>
       <c r="D14">
         <v>830282</v>
       </c>
@@ -3528,8 +3531,8 @@
       <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="26"/>
       <c r="D15">
         <v>830298</v>
       </c>
@@ -3569,7 +3572,7 @@
       <c r="A16">
         <v>5</v>
       </c>
-      <c r="B16" s="17"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="9"/>
       <c r="D16">
         <v>830299</v>
@@ -3647,10 +3650,10 @@
       <c r="A19">
         <v>1</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="24">
         <v>6</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="26" t="s">
         <v>183</v>
       </c>
       <c r="D19">
@@ -3692,8 +3695,8 @@
       <c r="A20">
         <v>2</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="26"/>
       <c r="E20" t="s">
         <v>150</v>
       </c>
@@ -3727,8 +3730,8 @@
       <c r="A21">
         <v>3</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="26"/>
       <c r="D21">
         <v>830498</v>
       </c>
@@ -3768,8 +3771,8 @@
       <c r="A22">
         <v>4</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="18"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="26"/>
       <c r="D22">
         <v>830280</v>
       </c>
@@ -3806,7 +3809,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="25"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="15"/>
       <c r="G23" s="12">
         <f t="shared" ref="G23:M23" si="10">SUM(G19:G22)</f>
@@ -3848,10 +3851,10 @@
       <c r="A25">
         <v>1</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="24">
         <v>5</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="24" t="s">
         <v>128</v>
       </c>
       <c r="D25">
@@ -3893,8 +3896,8 @@
       <c r="A26">
         <v>2</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
       <c r="D26">
         <v>830042</v>
       </c>
@@ -3934,8 +3937,8 @@
       <c r="A27">
         <v>3</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
       <c r="D27">
         <v>830054</v>
       </c>
@@ -3975,8 +3978,8 @@
       <c r="A28">
         <v>4</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
       <c r="D28">
         <v>830063</v>
       </c>
@@ -4016,8 +4019,8 @@
       <c r="A29">
         <v>5</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
       <c r="D29">
         <v>830305</v>
       </c>
@@ -4057,8 +4060,8 @@
       <c r="A30">
         <v>6</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
       <c r="D30">
         <v>830117</v>
       </c>
@@ -4135,10 +4138,10 @@
       <c r="A33">
         <v>1</v>
       </c>
-      <c r="B33" s="17">
+      <c r="B33" s="24">
         <v>5</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="24" t="s">
         <v>164</v>
       </c>
       <c r="D33">
@@ -4180,8 +4183,8 @@
       <c r="A34">
         <v>2</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
       <c r="D34">
         <v>830051</v>
       </c>
@@ -4221,8 +4224,8 @@
       <c r="A35">
         <v>3</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
       <c r="D35">
         <v>830054</v>
       </c>
@@ -4262,8 +4265,8 @@
       <c r="A36">
         <v>4</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
       <c r="D36">
         <v>830063</v>
       </c>
@@ -4303,8 +4306,8 @@
       <c r="A37">
         <v>5</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
       <c r="D37">
         <v>830305</v>
       </c>
@@ -4344,8 +4347,8 @@
       <c r="A38">
         <v>6</v>
       </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
       <c r="D38">
         <v>830117</v>
       </c>
@@ -4423,10 +4426,10 @@
       <c r="A41">
         <v>1</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="24">
         <v>4</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="24" t="s">
         <v>128</v>
       </c>
       <c r="D41">
@@ -4468,8 +4471,8 @@
       <c r="A42">
         <v>2</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
       <c r="D42">
         <v>830041</v>
       </c>
@@ -4509,8 +4512,8 @@
       <c r="A43">
         <v>3</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
       <c r="D43">
         <v>830053</v>
       </c>
@@ -4550,8 +4553,8 @@
       <c r="A44">
         <v>4</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
       <c r="D44">
         <v>830506</v>
       </c>
@@ -4591,8 +4594,8 @@
       <c r="A45">
         <v>5</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
       <c r="D45">
         <v>830308</v>
       </c>
@@ -4632,8 +4635,8 @@
       <c r="A46">
         <v>6</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
       <c r="D46">
         <v>830304</v>
       </c>
@@ -4715,10 +4718,10 @@
       <c r="A49">
         <v>1</v>
       </c>
-      <c r="B49" s="17">
+      <c r="B49" s="24">
         <v>4</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="24" t="s">
         <v>164</v>
       </c>
       <c r="D49">
@@ -4760,8 +4763,8 @@
       <c r="A50">
         <v>2</v>
       </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
       <c r="D50">
         <v>830050</v>
       </c>
@@ -4801,8 +4804,8 @@
       <c r="A51">
         <v>3</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
       <c r="D51">
         <v>830053</v>
       </c>
@@ -4842,8 +4845,8 @@
       <c r="A52">
         <v>4</v>
       </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
       <c r="D52">
         <v>830506</v>
       </c>
@@ -4883,8 +4886,8 @@
       <c r="A53">
         <v>5</v>
       </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
       <c r="D53">
         <v>830308</v>
       </c>
@@ -4924,8 +4927,8 @@
       <c r="A54">
         <v>6</v>
       </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
       <c r="D54">
         <v>830304</v>
       </c>
@@ -5003,10 +5006,10 @@
       <c r="A57">
         <v>1</v>
       </c>
-      <c r="B57" s="17">
+      <c r="B57" s="24">
         <v>3</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="24" t="s">
         <v>128</v>
       </c>
       <c r="D57">
@@ -5048,8 +5051,8 @@
       <c r="A58">
         <v>2</v>
       </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
       <c r="D58">
         <v>830040</v>
       </c>
@@ -5089,8 +5092,8 @@
       <c r="A59">
         <v>3</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
       <c r="D59">
         <v>830034</v>
       </c>
@@ -5130,8 +5133,8 @@
       <c r="A60">
         <v>4</v>
       </c>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
       <c r="D60">
         <v>830309</v>
       </c>
@@ -5171,8 +5174,8 @@
       <c r="A61">
         <v>5</v>
       </c>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
       <c r="D61">
         <v>830310</v>
       </c>
@@ -5212,8 +5215,8 @@
       <c r="A62">
         <v>6</v>
       </c>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
       <c r="D62">
         <v>830116</v>
       </c>
@@ -5324,10 +5327,10 @@
       <c r="A66">
         <v>1</v>
       </c>
-      <c r="B66" s="17">
+      <c r="B66" s="24">
         <v>3</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="24" t="s">
         <v>164</v>
       </c>
       <c r="D66">
@@ -5369,8 +5372,8 @@
       <c r="A67">
         <v>2</v>
       </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="24"/>
       <c r="D67">
         <v>830049</v>
       </c>
@@ -5410,8 +5413,8 @@
       <c r="A68">
         <v>3</v>
       </c>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
       <c r="D68">
         <v>830034</v>
       </c>
@@ -5451,8 +5454,8 @@
       <c r="A69">
         <v>4</v>
       </c>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="24"/>
       <c r="D69">
         <v>830309</v>
       </c>
@@ -5492,8 +5495,8 @@
       <c r="A70">
         <v>5</v>
       </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="24"/>
       <c r="D70">
         <v>830310</v>
       </c>
@@ -5533,8 +5536,8 @@
       <c r="A71">
         <v>6</v>
       </c>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
       <c r="D71">
         <v>830116</v>
       </c>
@@ -5642,10 +5645,10 @@
       <c r="A75">
         <v>1</v>
       </c>
-      <c r="B75" s="17">
+      <c r="B75" s="24">
         <v>2</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C75" s="26" t="s">
         <v>183</v>
       </c>
       <c r="D75">
@@ -5687,8 +5690,8 @@
       <c r="A76">
         <v>2</v>
       </c>
-      <c r="B76" s="17"/>
-      <c r="C76" s="18"/>
+      <c r="B76" s="24"/>
+      <c r="C76" s="26"/>
       <c r="D76">
         <v>830007</v>
       </c>
@@ -5728,8 +5731,8 @@
       <c r="A77">
         <v>3</v>
       </c>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
+      <c r="B77" s="24"/>
+      <c r="C77" s="26"/>
       <c r="D77">
         <v>830032</v>
       </c>
@@ -5769,8 +5772,8 @@
       <c r="A78">
         <v>4</v>
       </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="18"/>
+      <c r="B78" s="24"/>
+      <c r="C78" s="26"/>
       <c r="D78">
         <v>830030</v>
       </c>
@@ -5810,8 +5813,8 @@
       <c r="A79">
         <v>5</v>
       </c>
-      <c r="B79" s="17"/>
-      <c r="C79" s="18"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="26"/>
       <c r="D79">
         <v>830144</v>
       </c>
@@ -5819,7 +5822,7 @@
         <v>188</v>
       </c>
       <c r="F79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G79" s="12">
         <v>1760</v>
@@ -5851,8 +5854,8 @@
       <c r="A80">
         <v>6</v>
       </c>
-      <c r="B80" s="17"/>
-      <c r="C80" s="18"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="26"/>
       <c r="E80" t="s">
         <v>181</v>
       </c>
@@ -5922,10 +5925,10 @@
       <c r="A83">
         <v>1</v>
       </c>
-      <c r="B83" s="17">
-        <v>2</v>
-      </c>
-      <c r="C83" s="18" t="s">
+      <c r="B83" s="24">
+        <v>1</v>
+      </c>
+      <c r="C83" s="26" t="s">
         <v>183</v>
       </c>
       <c r="E83" t="s">
@@ -5961,8 +5964,8 @@
       <c r="A84">
         <v>2</v>
       </c>
-      <c r="B84" s="17"/>
-      <c r="C84" s="18"/>
+      <c r="B84" s="24"/>
+      <c r="C84" s="26"/>
       <c r="D84">
         <v>830313</v>
       </c>
@@ -6002,8 +6005,8 @@
       <c r="A85">
         <v>3</v>
       </c>
-      <c r="B85" s="17"/>
-      <c r="C85" s="18"/>
+      <c r="B85" s="24"/>
+      <c r="C85" s="26"/>
       <c r="D85">
         <v>830312</v>
       </c>
@@ -6043,8 +6046,8 @@
       <c r="A86">
         <v>4</v>
       </c>
-      <c r="B86" s="17"/>
-      <c r="C86" s="18"/>
+      <c r="B86" s="24"/>
+      <c r="C86" s="26"/>
       <c r="D86">
         <v>880094</v>
       </c>
@@ -6084,10 +6087,13 @@
       <c r="A87">
         <v>5</v>
       </c>
-      <c r="B87" s="17"/>
-      <c r="C87" s="18"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="26"/>
       <c r="E87" t="s">
-        <v>194</v>
+        <v>196</v>
+      </c>
+      <c r="F87" t="s">
+        <v>197</v>
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="6">
@@ -6104,8 +6110,8 @@
       </c>
     </row>
     <row r="88" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="17"/>
-      <c r="C88" s="18"/>
+      <c r="B88" s="24"/>
+      <c r="C88" s="26"/>
       <c r="G88" s="12">
         <f t="shared" ref="G88:M88" si="24">SUM(G83:G87)</f>
         <v>6700</v>
@@ -6395,23 +6401,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="B33:B38"/>
-    <mergeCell ref="C33:C38"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="C75:C80"/>
     <mergeCell ref="B83:B88"/>
     <mergeCell ref="C83:C88"/>
     <mergeCell ref="B49:B54"/>
@@ -6420,6 +6409,23 @@
     <mergeCell ref="C57:C62"/>
     <mergeCell ref="B66:B71"/>
     <mergeCell ref="C66:C71"/>
+    <mergeCell ref="B33:B38"/>
+    <mergeCell ref="C33:C38"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6430,7 +6436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
